--- a/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="584">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1956,6 +1956,15 @@
   </si>
   <si>
     <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>8/3,4/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-19)</t>
+  </si>
+  <si>
+    <t>UT(0-0-7)</t>
   </si>
 </sst>
 </file>
@@ -2659,7 +2668,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K825" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K826" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2988,11 +2997,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L825"/>
+  <dimension ref="A2:L826"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A625" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D633" sqref="D633"/>
+      <pane ySplit="4425" topLeftCell="A622" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E630" sqref="E630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,7 +3168,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.951999999999998</v>
+        <v>60.021999999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3169,7 +3178,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.291999999999973</v>
+        <v>47.541999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17040,19 +17049,19 @@
       </c>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B628" s="20"/>
-      <c r="C628" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D628" s="39"/>
+      <c r="A628" s="40"/>
+      <c r="B628" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="C628" s="13"/>
+      <c r="D628" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
-      <c r="G628" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G628" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H628" s="39"/>
       <c r="I628" s="9"/>
@@ -17060,77 +17069,79 @@
       <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="41">
+      <c r="A629" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B629" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C629" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D629" s="39">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E629" s="9"/>
+      <c r="F629" s="20"/>
+      <c r="G629" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H629" s="39"/>
+      <c r="I629" s="9"/>
+      <c r="J629" s="11"/>
+      <c r="K629" s="20"/>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A630" s="41">
         <v>44713</v>
       </c>
-      <c r="B629" s="15" t="s">
+      <c r="B630" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C629" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="D629" s="43">
-        <v>1</v>
-      </c>
-      <c r="E629" s="50"/>
-      <c r="F629" s="15"/>
-      <c r="G629" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H629" s="43"/>
-      <c r="I629" s="50"/>
-      <c r="J629" s="12"/>
-      <c r="K629" s="53">
+      <c r="C630" s="42">
+        <v>1.25</v>
+      </c>
+      <c r="D630" s="43">
+        <v>1</v>
+      </c>
+      <c r="E630" s="50"/>
+      <c r="F630" s="15"/>
+      <c r="G630" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H630" s="43"/>
+      <c r="I630" s="50"/>
+      <c r="J630" s="12"/>
+      <c r="K630" s="53">
         <v>44720</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" s="40"/>
-      <c r="B630" s="20" t="s">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A631" s="40"/>
+      <c r="B631" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C630" s="13"/>
-      <c r="D630" s="39">
+      <c r="C631" s="13"/>
+      <c r="D631" s="39">
         <v>8.7000000000000022E-2</v>
       </c>
-      <c r="E630" s="9"/>
-      <c r="F630" s="20"/>
-      <c r="G630" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H630" s="39"/>
-      <c r="I630" s="9"/>
-      <c r="J630" s="11"/>
-      <c r="K630" s="49"/>
-    </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B631" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C631" s="13"/>
-      <c r="D631" s="39"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
       <c r="G631" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H631" s="39">
-        <v>1</v>
-      </c>
+      <c r="H631" s="39"/>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
-      <c r="K631" s="49">
+      <c r="K631" s="49"/>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A632" s="40">
         <v>44743</v>
       </c>
-    </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>49</v>
       </c>
@@ -17148,7 +17159,7 @@
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
       <c r="K632" s="49">
-        <v>44762</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
@@ -17169,8 +17180,8 @@
       </c>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="20" t="s">
-        <v>566</v>
+      <c r="K633" s="49">
+        <v>44762</v>
       </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
@@ -17192,7 +17203,7 @@
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
       <c r="K634" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
@@ -17213,204 +17224,204 @@
       </c>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="49">
-        <v>44785</v>
+      <c r="K635" s="20" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
-        <v>579</v>
+        <v>49</v>
       </c>
       <c r="C636" s="13"/>
-      <c r="D636" s="39">
-        <v>7.3000000000000009E-2</v>
-      </c>
+      <c r="D636" s="39"/>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
       <c r="G636" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H636" s="39"/>
+      <c r="H636" s="39">
+        <v>1</v>
+      </c>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="49"/>
+      <c r="K636" s="49">
+        <v>44785</v>
+      </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A637" s="40"/>
       <c r="B637" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="C637" s="13">
-        <v>1.25</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="C637" s="13"/>
       <c r="D637" s="39">
-        <v>4.4000000000000004E-2</v>
+        <v>7.3000000000000009E-2</v>
       </c>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G637" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
+      <c r="K637" s="49"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B638" s="20" t="s">
-        <v>431</v>
+        <v>578</v>
       </c>
       <c r="C638" s="13">
         <v>1.25</v>
       </c>
-      <c r="D638" s="39"/>
+      <c r="D638" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
       <c r="G638" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H638" s="39">
-        <v>3</v>
-      </c>
+      <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="20" t="s">
-        <v>569</v>
-      </c>
+      <c r="K638" s="20"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="40"/>
+      <c r="A639" s="40">
+        <v>44805</v>
+      </c>
       <c r="B639" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C639" s="13"/>
+        <v>431</v>
+      </c>
+      <c r="C639" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D639" s="39"/>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G639" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H639" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="49">
-        <v>44816</v>
+      <c r="K639" s="20" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C640" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D640" s="39">
-        <v>2</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C640" s="13"/>
+      <c r="D640" s="39"/>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
-      <c r="G640" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H640" s="39"/>
+      <c r="G640" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H640" s="39">
+        <v>1</v>
+      </c>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="20" t="s">
-        <v>568</v>
+      <c r="K640" s="49">
+        <v>44816</v>
       </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="40"/>
+      <c r="A641" s="40">
+        <v>44835</v>
+      </c>
       <c r="B641" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="C641" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="C641" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D641" s="39">
-        <v>0.27900000000000003</v>
+        <v>2</v>
       </c>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
-      <c r="G641" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G641" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="20"/>
+      <c r="K641" s="20" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C642" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D642" s="39"/>
+        <v>577</v>
+      </c>
+      <c r="C642" s="13"/>
+      <c r="D642" s="39">
+        <v>0.27900000000000003</v>
+      </c>
       <c r="E642" s="9"/>
       <c r="F642" s="20"/>
-      <c r="G642" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H642" s="39">
-        <v>1</v>
-      </c>
+      <c r="G642" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H642" s="39"/>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="49">
-        <v>44880</v>
-      </c>
+      <c r="K642" s="20"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" s="40"/>
+      <c r="A643" s="40">
+        <v>44866</v>
+      </c>
       <c r="B643" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="C643" s="13"/>
-      <c r="D643" s="39">
-        <v>3</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C643" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D643" s="39"/>
       <c r="E643" s="9"/>
       <c r="F643" s="20"/>
-      <c r="G643" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H643" s="39"/>
+      <c r="G643" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H643" s="39">
+        <v>1</v>
+      </c>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
-      <c r="K643" s="20" t="s">
-        <v>570</v>
+      <c r="K643" s="49">
+        <v>44880</v>
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
-        <v>162</v>
+        <v>370</v>
       </c>
       <c r="C644" s="13"/>
       <c r="D644" s="39">
-        <v>2E-3</v>
+        <v>3</v>
       </c>
       <c r="E644" s="9"/>
       <c r="F644" s="20"/>
@@ -17421,64 +17432,64 @@
       <c r="H644" s="39"/>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
-      <c r="K644" s="20"/>
+      <c r="K644" s="20" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A645" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A645" s="40"/>
       <c r="B645" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C645" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D645" s="39"/>
+        <v>162</v>
+      </c>
+      <c r="C645" s="13"/>
+      <c r="D645" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E645" s="9"/>
       <c r="F645" s="20"/>
-      <c r="G645" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H645" s="39">
-        <v>1</v>
-      </c>
+      <c r="G645" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H645" s="39"/>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
-      <c r="K645" s="49">
+      <c r="K645" s="20"/>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A646" s="40">
         <v>44896</v>
       </c>
-    </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C646" s="13"/>
-      <c r="D646" s="39">
-        <v>1</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C646" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D646" s="39"/>
       <c r="E646" s="9"/>
       <c r="F646" s="20"/>
-      <c r="G646" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H646" s="39"/>
+      <c r="G646" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H646" s="39">
+        <v>1</v>
+      </c>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
       <c r="K646" s="49">
-        <v>44911</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
-        <v>576</v>
+        <v>96</v>
       </c>
       <c r="C647" s="13"/>
       <c r="D647" s="39">
-        <v>4.2000000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
@@ -17489,15 +17500,19 @@
       <c r="H647" s="39"/>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="49"/>
+      <c r="K647" s="49">
+        <v>44911</v>
+      </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A648" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="B648" s="20"/>
+      <c r="A648" s="40"/>
+      <c r="B648" s="20" t="s">
+        <v>576</v>
+      </c>
       <c r="C648" s="13"/>
-      <c r="D648" s="39"/>
+      <c r="D648" s="39">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
       <c r="G648" s="13" t="str">
@@ -17507,57 +17522,49 @@
       <c r="H648" s="39"/>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
-      <c r="K648" s="20"/>
+      <c r="K648" s="49"/>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A649" s="41">
+      <c r="A649" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="B649" s="20"/>
+      <c r="C649" s="13"/>
+      <c r="D649" s="39"/>
+      <c r="E649" s="9"/>
+      <c r="F649" s="20"/>
+      <c r="G649" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H649" s="39"/>
+      <c r="I649" s="9"/>
+      <c r="J649" s="11"/>
+      <c r="K649" s="20"/>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A650" s="41">
         <v>44927</v>
       </c>
-      <c r="B649" s="15"/>
-      <c r="C649" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="D649" s="43"/>
-      <c r="E649" s="50"/>
-      <c r="F649" s="15"/>
-      <c r="G649" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H649" s="43"/>
-      <c r="I649" s="50"/>
-      <c r="J649" s="12"/>
-      <c r="K649" s="15"/>
-    </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B650" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="B650" s="15"/>
       <c r="C650" s="42">
         <v>1.25</v>
       </c>
-      <c r="D650" s="39"/>
-      <c r="E650" s="9"/>
-      <c r="F650" s="20"/>
-      <c r="G650" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H650" s="39">
-        <v>1</v>
-      </c>
-      <c r="I650" s="9"/>
-      <c r="J650" s="11"/>
-      <c r="K650" s="49">
-        <v>44960</v>
-      </c>
+      <c r="D650" s="43"/>
+      <c r="E650" s="50"/>
+      <c r="F650" s="15"/>
+      <c r="G650" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H650" s="43"/>
+      <c r="I650" s="50"/>
+      <c r="J650" s="12"/>
+      <c r="K650" s="15"/>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B651" s="20" t="s">
         <v>124</v>
@@ -17578,33 +17585,39 @@
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
       <c r="K651" s="49">
-        <v>44995</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A652" s="40"/>
+      <c r="A652" s="40">
+        <v>44986</v>
+      </c>
       <c r="B652" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="C652" s="42"/>
+        <v>124</v>
+      </c>
+      <c r="C652" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D652" s="39"/>
       <c r="E652" s="9"/>
       <c r="F652" s="20"/>
-      <c r="G652" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H652" s="39"/>
+      <c r="G652" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H652" s="39">
+        <v>1</v>
+      </c>
       <c r="I652" s="9"/>
       <c r="J652" s="11"/>
       <c r="K652" s="49">
-        <v>45008</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
-        <v>124</v>
+        <v>574</v>
       </c>
       <c r="C653" s="42"/>
       <c r="D653" s="39"/>
@@ -17614,31 +17627,25 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H653" s="39">
-        <v>1</v>
-      </c>
+      <c r="H653" s="39"/>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
       <c r="K653" s="49">
-        <v>45009</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C654" s="42">
-        <v>1.25</v>
-      </c>
+      <c r="C654" s="42"/>
       <c r="D654" s="39"/>
       <c r="E654" s="9"/>
       <c r="F654" s="20"/>
-      <c r="G654" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G654" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H654" s="39">
         <v>1</v>
@@ -17646,130 +17653,136 @@
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
       <c r="K654" s="49">
-        <v>45028</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B655" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="C655" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D655" s="39">
-        <v>2</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C655" s="42">
+        <v>1.25</v>
+      </c>
+      <c r="D655" s="39"/>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
       <c r="G655" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H655" s="39"/>
+      <c r="H655" s="39">
+        <v>1</v>
+      </c>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
-      <c r="K655" s="20" t="s">
-        <v>573</v>
+      <c r="K655" s="49">
+        <v>45028</v>
       </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" s="40"/>
+      <c r="A656" s="40">
+        <v>45047</v>
+      </c>
       <c r="B656" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="C656" s="13"/>
-      <c r="D656" s="39"/>
+        <v>572</v>
+      </c>
+      <c r="C656" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D656" s="39">
+        <v>2</v>
+      </c>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G656" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H656" s="39"/>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
-      <c r="K656" s="49" t="s">
-        <v>575</v>
+      <c r="K656" s="20" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A657" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C657" s="13">
-        <v>1.25</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="C657" s="13"/>
       <c r="D657" s="39"/>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H657" s="39">
-        <v>1</v>
-      </c>
+      <c r="G657" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H657" s="39"/>
       <c r="I657" s="9"/>
       <c r="J657" s="11"/>
-      <c r="K657" s="49">
-        <v>45093</v>
+      <c r="K657" s="49" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B658" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="C658" s="13"/>
+        <v>124</v>
+      </c>
+      <c r="C658" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D658" s="39"/>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
-      <c r="G658" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H658" s="39"/>
+      <c r="G658" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H658" s="39">
+        <v>1</v>
+      </c>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
       <c r="K658" s="49">
-        <v>45114</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A659" s="40"/>
+      <c r="A659" s="40">
+        <v>45108</v>
+      </c>
       <c r="B659" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C659" s="13"/>
+        <v>574</v>
+      </c>
+      <c r="C659" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D659" s="39"/>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
-      <c r="G659" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H659" s="39">
-        <v>1</v>
-      </c>
+      <c r="G659" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H659" s="39"/>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
       <c r="K659" s="49">
-        <v>45127</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B660" s="20"/>
+      <c r="A660" s="40"/>
+      <c r="B660" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C660" s="13"/>
       <c r="D660" s="39"/>
       <c r="E660" s="9"/>
@@ -17778,18 +17791,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H660" s="39"/>
+      <c r="H660" s="39">
+        <v>1</v>
+      </c>
       <c r="I660" s="9"/>
       <c r="J660" s="11"/>
-      <c r="K660" s="20"/>
+      <c r="K660" s="49">
+        <v>45127</v>
+      </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B661" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B661" s="20" t="s">
+        <v>572</v>
+      </c>
       <c r="C661" s="13"/>
-      <c r="D661" s="39"/>
+      <c r="D661" s="39">
+        <v>2</v>
+      </c>
       <c r="E661" s="9"/>
       <c r="F661" s="20"/>
       <c r="G661" s="13" t="str">
@@ -17799,11 +17820,13 @@
       <c r="H661" s="39"/>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
-      <c r="K661" s="20"/>
+      <c r="K661" s="20" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17821,7 +17844,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17839,7 +17862,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17857,7 +17880,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17875,7 +17898,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17893,7 +17916,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17911,7 +17934,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17929,7 +17952,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17947,7 +17970,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17965,7 +17988,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17983,7 +18006,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18001,7 +18024,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18019,7 +18042,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18037,7 +18060,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18055,7 +18078,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18073,7 +18096,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18091,7 +18114,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18109,7 +18132,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18127,7 +18150,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18145,7 +18168,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18163,7 +18186,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18181,7 +18204,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18199,7 +18222,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18217,7 +18240,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18235,7 +18258,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18253,7 +18276,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18271,7 +18294,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18289,7 +18312,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18307,7 +18330,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18325,7 +18348,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18343,7 +18366,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18361,7 +18384,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18379,7 +18402,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18397,7 +18420,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18415,7 +18438,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18433,7 +18456,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18451,7 +18474,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18469,7 +18492,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18487,7 +18510,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18505,7 +18528,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18523,7 +18546,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18541,7 +18564,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18559,7 +18582,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18577,7 +18600,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18595,7 +18618,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18613,7 +18636,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18631,7 +18654,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18649,7 +18672,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18667,7 +18690,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18685,7 +18708,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18703,7 +18726,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18721,7 +18744,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18739,7 +18762,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18757,7 +18780,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18775,7 +18798,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18793,7 +18816,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18811,7 +18834,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18829,7 +18852,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18847,7 +18870,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18865,7 +18888,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18883,7 +18906,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18901,7 +18924,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18919,7 +18942,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18937,7 +18960,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18955,7 +18978,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18973,7 +18996,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -18991,7 +19014,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19009,7 +19032,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19027,7 +19050,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19045,7 +19068,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19063,7 +19086,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19081,7 +19104,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19099,7 +19122,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19117,7 +19140,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19135,7 +19158,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19153,7 +19176,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19171,7 +19194,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19189,7 +19212,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19207,7 +19230,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19225,7 +19248,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19243,7 +19266,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19261,7 +19284,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19279,7 +19302,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19297,7 +19320,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19315,7 +19338,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19333,7 +19356,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19351,7 +19374,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19369,7 +19392,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19387,7 +19410,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19405,7 +19428,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19423,7 +19446,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19441,7 +19464,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19459,7 +19482,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19477,7 +19500,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19495,7 +19518,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19513,7 +19536,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19531,7 +19554,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19549,7 +19572,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19567,7 +19590,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19585,7 +19608,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19603,7 +19626,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19621,7 +19644,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19639,7 +19662,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19657,7 +19680,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19675,7 +19698,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19693,7 +19716,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19711,7 +19734,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19729,7 +19752,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19747,7 +19770,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19765,7 +19788,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19783,7 +19806,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19801,7 +19824,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19819,7 +19842,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19837,7 +19860,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19855,7 +19878,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19873,7 +19896,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19891,7 +19914,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19909,7 +19932,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19927,7 +19950,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19945,7 +19968,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19963,7 +19986,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19981,7 +20004,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19999,7 +20022,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -20017,7 +20040,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -20035,7 +20058,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -20053,7 +20076,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -20071,7 +20094,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -20089,7 +20112,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -20107,7 +20130,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -20125,7 +20148,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -20143,7 +20166,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -20161,7 +20184,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -20179,7 +20202,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -20197,7 +20220,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -20215,7 +20238,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -20233,7 +20256,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>49310</v>
+        <v>49279</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -20251,7 +20274,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>49341</v>
+        <v>49310</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -20269,7 +20292,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
-        <v>49369</v>
+        <v>49341</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -20287,7 +20310,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
-        <v>49400</v>
+        <v>49369</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -20305,7 +20328,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
-        <v>49430</v>
+        <v>49400</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20323,7 +20346,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
-        <v>49461</v>
+        <v>49430</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20341,7 +20364,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
-        <v>49491</v>
+        <v>49461</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20359,7 +20382,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
-        <v>49522</v>
+        <v>49491</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20377,7 +20400,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
-        <v>49553</v>
+        <v>49522</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20395,7 +20418,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
-        <v>49583</v>
+        <v>49553</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20413,7 +20436,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
-        <v>49614</v>
+        <v>49583</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20431,7 +20454,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
-        <v>49644</v>
+        <v>49614</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20449,7 +20472,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
-        <v>49675</v>
+        <v>49644</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20467,7 +20490,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
-        <v>49706</v>
+        <v>49675</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20485,7 +20508,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
-        <v>49735</v>
+        <v>49706</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20503,7 +20526,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
-        <v>49766</v>
+        <v>49735</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20521,7 +20544,7 @@
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40">
-        <v>49796</v>
+        <v>49766</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20539,7 +20562,7 @@
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40">
-        <v>49827</v>
+        <v>49796</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20557,7 +20580,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40">
-        <v>49857</v>
+        <v>49827</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20575,7 +20598,7 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40">
-        <v>49888</v>
+        <v>49857</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20593,7 +20616,7 @@
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40">
-        <v>49919</v>
+        <v>49888</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20611,7 +20634,7 @@
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40">
-        <v>49949</v>
+        <v>49919</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -20629,7 +20652,7 @@
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40">
-        <v>49980</v>
+        <v>49949</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -20646,7 +20669,9 @@
       <c r="K819" s="20"/>
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A820" s="40"/>
+      <c r="A820" s="40">
+        <v>49980</v>
+      </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
       <c r="D820" s="39"/>
@@ -20726,20 +20751,36 @@
       <c r="K824" s="20"/>
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A825" s="41"/>
-      <c r="B825" s="15"/>
-      <c r="C825" s="42"/>
-      <c r="D825" s="43"/>
+      <c r="A825" s="40"/>
+      <c r="B825" s="20"/>
+      <c r="C825" s="13"/>
+      <c r="D825" s="39"/>
       <c r="E825" s="9"/>
-      <c r="F825" s="15"/>
-      <c r="G825" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H825" s="43"/>
+      <c r="F825" s="20"/>
+      <c r="G825" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H825" s="39"/>
       <c r="I825" s="9"/>
-      <c r="J825" s="12"/>
-      <c r="K825" s="15"/>
+      <c r="J825" s="11"/>
+      <c r="K825" s="20"/>
+    </row>
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A826" s="41"/>
+      <c r="B826" s="15"/>
+      <c r="C826" s="42"/>
+      <c r="D826" s="43"/>
+      <c r="E826" s="9"/>
+      <c r="F826" s="15"/>
+      <c r="G826" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H826" s="43"/>
+      <c r="I826" s="9"/>
+      <c r="J826" s="12"/>
+      <c r="K826" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20853,11 +20894,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>8.7000000000000022E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J3" s="47">
         <v>36321</v>

--- a/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="585">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1965,6 +1965,9 @@
   </si>
   <si>
     <t>UT(0-0-7)</t>
+  </si>
+  <si>
+    <t>UT(0-0-19)</t>
   </si>
 </sst>
 </file>
@@ -2668,7 +2671,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K826" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K828" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2997,11 +3000,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L826"/>
+  <dimension ref="A2:L828"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A622" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E630" sqref="E630"/>
+      <pane ySplit="4425" topLeftCell="A661" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J666" sqref="A9:K828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,7 +3171,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.021999999999991</v>
+        <v>60.231999999999971</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3178,7 +3181,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47.541999999999973</v>
+        <v>47.791999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17003,38 +17006,36 @@
       </c>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A626" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C626" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D626" s="39"/>
+        <v>580</v>
+      </c>
+      <c r="C626" s="13"/>
+      <c r="D626" s="39">
+        <v>1</v>
+      </c>
       <c r="E626" s="9"/>
       <c r="F626" s="20"/>
-      <c r="G626" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H626" s="39">
-        <v>1</v>
-      </c>
+      <c r="G626" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H626" s="39"/>
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
-      <c r="K626" s="20" t="s">
-        <v>564</v>
+      <c r="K626" s="49">
+        <v>44631</v>
       </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
-        <v>434</v>
+        <v>584</v>
       </c>
       <c r="C627" s="13"/>
-      <c r="D627" s="39"/>
+      <c r="D627" s="39">
+        <v>0.04</v>
+      </c>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
       <c r="G627" s="13" t="str">
@@ -17044,148 +17045,148 @@
       <c r="H627" s="39"/>
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
-      <c r="K627" s="20" t="s">
-        <v>565</v>
-      </c>
+      <c r="K627" s="49"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="40"/>
+      <c r="A628" s="40">
+        <v>44652</v>
+      </c>
       <c r="B628" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="C628" s="13"/>
-      <c r="D628" s="39">
-        <v>1.4999999999999999E-2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C628" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D628" s="39"/>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
-      <c r="G628" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H628" s="39"/>
+      <c r="G628" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H628" s="39">
+        <v>1</v>
+      </c>
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
-      <c r="K628" s="20"/>
+      <c r="K628" s="20" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="C629" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D629" s="39">
-        <v>0.16500000000000001</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C629" s="13"/>
+      <c r="D629" s="39"/>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
-      <c r="G629" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G629" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H629" s="39"/>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="20"/>
+      <c r="K629" s="20" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" s="41">
-        <v>44713</v>
-      </c>
-      <c r="B630" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="C630" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="D630" s="43">
-        <v>1</v>
-      </c>
-      <c r="E630" s="50"/>
-      <c r="F630" s="15"/>
-      <c r="G630" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H630" s="43"/>
-      <c r="I630" s="50"/>
-      <c r="J630" s="12"/>
-      <c r="K630" s="53">
-        <v>44720</v>
-      </c>
+      <c r="A630" s="40"/>
+      <c r="B630" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="C630" s="13"/>
+      <c r="D630" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E630" s="9"/>
+      <c r="F630" s="20"/>
+      <c r="G630" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H630" s="39"/>
+      <c r="I630" s="9"/>
+      <c r="J630" s="11"/>
+      <c r="K630" s="20"/>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" s="40"/>
+      <c r="A631" s="40">
+        <v>44682</v>
+      </c>
       <c r="B631" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C631" s="13"/>
+        <v>582</v>
+      </c>
+      <c r="C631" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D631" s="39">
-        <v>8.7000000000000022E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G631" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H631" s="39"/>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
-      <c r="K631" s="49"/>
+      <c r="K631" s="20"/>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B632" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C632" s="13"/>
-      <c r="D632" s="39"/>
-      <c r="E632" s="9"/>
-      <c r="F632" s="20"/>
-      <c r="G632" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H632" s="39">
-        <v>1</v>
-      </c>
-      <c r="I632" s="9"/>
-      <c r="J632" s="11"/>
-      <c r="K632" s="49">
-        <v>44743</v>
+      <c r="A632" s="41">
+        <v>44713</v>
+      </c>
+      <c r="B632" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C632" s="42">
+        <v>1.25</v>
+      </c>
+      <c r="D632" s="43">
+        <v>1</v>
+      </c>
+      <c r="E632" s="50"/>
+      <c r="F632" s="15"/>
+      <c r="G632" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H632" s="43"/>
+      <c r="I632" s="50"/>
+      <c r="J632" s="12"/>
+      <c r="K632" s="53">
+        <v>44720</v>
       </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C633" s="13"/>
-      <c r="D633" s="39"/>
+      <c r="D633" s="39">
+        <v>8.7000000000000022E-2</v>
+      </c>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
       <c r="G633" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H633" s="39">
-        <v>1</v>
-      </c>
+      <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="49">
-        <v>44762</v>
-      </c>
+      <c r="K633" s="49"/>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A634" s="40"/>
+      <c r="A634" s="40">
+        <v>44743</v>
+      </c>
       <c r="B634" s="20" t="s">
         <v>49</v>
       </c>
@@ -17202,8 +17203,8 @@
       </c>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="20" t="s">
-        <v>566</v>
+      <c r="K634" s="49">
+        <v>44743</v>
       </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
@@ -17224,8 +17225,8 @@
       </c>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20" t="s">
-        <v>567</v>
+      <c r="K635" s="49">
+        <v>44762</v>
       </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
@@ -17246,182 +17247,180 @@
       </c>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="49">
-        <v>44785</v>
+      <c r="K636" s="20" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20" t="s">
-        <v>579</v>
+        <v>49</v>
       </c>
       <c r="C637" s="13"/>
-      <c r="D637" s="39">
-        <v>7.3000000000000009E-2</v>
-      </c>
+      <c r="D637" s="39"/>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
       <c r="G637" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H637" s="39"/>
+      <c r="H637" s="39">
+        <v>1</v>
+      </c>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="49"/>
+      <c r="K637" s="20" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="C638" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D638" s="39">
-        <v>4.4000000000000004E-2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C638" s="13"/>
+      <c r="D638" s="39"/>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H638" s="39"/>
+      <c r="G638" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H638" s="39">
+        <v>1</v>
+      </c>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="20"/>
+      <c r="K638" s="49">
+        <v>44785</v>
+      </c>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="C639" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D639" s="39"/>
+        <v>579</v>
+      </c>
+      <c r="C639" s="13"/>
+      <c r="D639" s="39">
+        <v>7.3000000000000009E-2</v>
+      </c>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H639" s="39">
-        <v>3</v>
-      </c>
+      <c r="G639" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H639" s="39"/>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20" t="s">
-        <v>569</v>
-      </c>
+      <c r="K639" s="49"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="40"/>
+      <c r="A640" s="40">
+        <v>44774</v>
+      </c>
       <c r="B640" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C640" s="13"/>
-      <c r="D640" s="39"/>
+        <v>578</v>
+      </c>
+      <c r="C640" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D640" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
-      <c r="G640" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H640" s="39">
-        <v>1</v>
-      </c>
+      <c r="G640" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H640" s="39"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="49">
-        <v>44816</v>
-      </c>
+      <c r="K640" s="20"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B641" s="20" t="s">
-        <v>61</v>
+        <v>431</v>
       </c>
       <c r="C641" s="13">
         <v>1.25</v>
       </c>
-      <c r="D641" s="39">
-        <v>2</v>
-      </c>
+      <c r="D641" s="39"/>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
       <c r="G641" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H641" s="39"/>
+      <c r="H641" s="39">
+        <v>3</v>
+      </c>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
       <c r="K641" s="20" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
-        <v>577</v>
+        <v>124</v>
       </c>
       <c r="C642" s="13"/>
-      <c r="D642" s="39">
-        <v>0.27900000000000003</v>
-      </c>
+      <c r="D642" s="39"/>
       <c r="E642" s="9"/>
       <c r="F642" s="20"/>
       <c r="G642" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H642" s="39"/>
+      <c r="H642" s="39">
+        <v>1</v>
+      </c>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="20"/>
+      <c r="K642" s="49">
+        <v>44816</v>
+      </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B643" s="20" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C643" s="13">
         <v>1.25</v>
       </c>
-      <c r="D643" s="39"/>
+      <c r="D643" s="39">
+        <v>2</v>
+      </c>
       <c r="E643" s="9"/>
       <c r="F643" s="20"/>
       <c r="G643" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H643" s="39">
-        <v>1</v>
-      </c>
+      <c r="H643" s="39"/>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
-      <c r="K643" s="49">
-        <v>44880</v>
+      <c r="K643" s="20" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
-        <v>370</v>
+        <v>577</v>
       </c>
       <c r="C644" s="13"/>
       <c r="D644" s="39">
-        <v>3</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="E644" s="9"/>
       <c r="F644" s="20"/>
@@ -17432,64 +17431,64 @@
       <c r="H644" s="39"/>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
-      <c r="K644" s="20" t="s">
-        <v>570</v>
-      </c>
+      <c r="K644" s="20"/>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A645" s="40"/>
+      <c r="A645" s="40">
+        <v>44866</v>
+      </c>
       <c r="B645" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C645" s="13"/>
-      <c r="D645" s="39">
-        <v>2E-3</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C645" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D645" s="39"/>
       <c r="E645" s="9"/>
       <c r="F645" s="20"/>
-      <c r="G645" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H645" s="39"/>
+      <c r="G645" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H645" s="39">
+        <v>1</v>
+      </c>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
-      <c r="K645" s="20"/>
+      <c r="K645" s="49">
+        <v>44880</v>
+      </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A646" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C646" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D646" s="39"/>
+        <v>370</v>
+      </c>
+      <c r="C646" s="13"/>
+      <c r="D646" s="39">
+        <v>3</v>
+      </c>
       <c r="E646" s="9"/>
       <c r="F646" s="20"/>
-      <c r="G646" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H646" s="39">
-        <v>1</v>
-      </c>
+      <c r="G646" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H646" s="39"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="49">
-        <v>44896</v>
+      <c r="K646" s="20" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="C647" s="13"/>
       <c r="D647" s="39">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
@@ -17500,37 +17499,43 @@
       <c r="H647" s="39"/>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="49">
-        <v>44911</v>
-      </c>
+      <c r="K647" s="20"/>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A648" s="40"/>
+      <c r="A648" s="40">
+        <v>44896</v>
+      </c>
       <c r="B648" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="C648" s="13"/>
-      <c r="D648" s="39">
-        <v>4.2000000000000003E-2</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C648" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D648" s="39"/>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
-      <c r="G648" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H648" s="39"/>
+      <c r="G648" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H648" s="39">
+        <v>1</v>
+      </c>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
-      <c r="K648" s="49"/>
+      <c r="K648" s="49">
+        <v>44896</v>
+      </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A649" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="B649" s="20"/>
+      <c r="A649" s="40"/>
+      <c r="B649" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C649" s="13"/>
-      <c r="D649" s="39"/>
+      <c r="D649" s="39">
+        <v>1</v>
+      </c>
       <c r="E649" s="9"/>
       <c r="F649" s="20"/>
       <c r="G649" s="13" t="str">
@@ -17540,112 +17545,110 @@
       <c r="H649" s="39"/>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
-      <c r="K649" s="20"/>
+      <c r="K649" s="49">
+        <v>44911</v>
+      </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="41">
-        <v>44927</v>
-      </c>
-      <c r="B650" s="15"/>
-      <c r="C650" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="D650" s="43"/>
-      <c r="E650" s="50"/>
-      <c r="F650" s="15"/>
-      <c r="G650" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H650" s="43"/>
-      <c r="I650" s="50"/>
-      <c r="J650" s="12"/>
-      <c r="K650" s="15"/>
+      <c r="A650" s="40"/>
+      <c r="B650" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="C650" s="13"/>
+      <c r="D650" s="39">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E650" s="9"/>
+      <c r="F650" s="20"/>
+      <c r="G650" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H650" s="39"/>
+      <c r="I650" s="9"/>
+      <c r="J650" s="11"/>
+      <c r="K650" s="49"/>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A651" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B651" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C651" s="42">
-        <v>1.25</v>
-      </c>
+      <c r="A651" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="B651" s="20"/>
+      <c r="C651" s="13"/>
       <c r="D651" s="39"/>
       <c r="E651" s="9"/>
       <c r="F651" s="20"/>
-      <c r="G651" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H651" s="39">
-        <v>1</v>
-      </c>
+      <c r="G651" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H651" s="39"/>
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
-      <c r="K651" s="49">
-        <v>44960</v>
-      </c>
+      <c r="K651" s="20"/>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A652" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B652" s="20" t="s">
+      <c r="A652" s="41">
+        <v>44927</v>
+      </c>
+      <c r="B652" s="15"/>
+      <c r="C652" s="42">
+        <v>1.25</v>
+      </c>
+      <c r="D652" s="43"/>
+      <c r="E652" s="50"/>
+      <c r="F652" s="15"/>
+      <c r="G652" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H652" s="43"/>
+      <c r="I652" s="50"/>
+      <c r="J652" s="12"/>
+      <c r="K652" s="15"/>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A653" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B653" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C652" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="D652" s="39"/>
-      <c r="E652" s="9"/>
-      <c r="F652" s="20"/>
-      <c r="G652" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H652" s="39">
-        <v>1</v>
-      </c>
-      <c r="I652" s="9"/>
-      <c r="J652" s="11"/>
-      <c r="K652" s="49">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A653" s="40"/>
-      <c r="B653" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="C653" s="42"/>
+      <c r="C653" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D653" s="39"/>
       <c r="E653" s="9"/>
       <c r="F653" s="20"/>
-      <c r="G653" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H653" s="39"/>
+      <c r="G653" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H653" s="39">
+        <v>1</v>
+      </c>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
       <c r="K653" s="49">
-        <v>45008</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="40"/>
+      <c r="A654" s="40">
+        <v>44986</v>
+      </c>
       <c r="B654" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C654" s="42"/>
+      <c r="C654" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D654" s="39"/>
       <c r="E654" s="9"/>
       <c r="F654" s="20"/>
-      <c r="G654" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G654" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H654" s="39">
         <v>1</v>
@@ -17653,143 +17656,139 @@
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
       <c r="K654" s="49">
-        <v>45009</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C655" s="42">
-        <v>1.25</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="C655" s="42"/>
       <c r="D655" s="39"/>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
-      <c r="G655" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H655" s="39">
-        <v>1</v>
-      </c>
+      <c r="G655" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H655" s="39"/>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
       <c r="K655" s="49">
-        <v>45028</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A656" s="40"/>
       <c r="B656" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="C656" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D656" s="39">
-        <v>2</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C656" s="42"/>
+      <c r="D656" s="39"/>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H656" s="39"/>
+      <c r="G656" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H656" s="39">
+        <v>1</v>
+      </c>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
-      <c r="K656" s="20" t="s">
-        <v>573</v>
+      <c r="K656" s="49">
+        <v>45009</v>
       </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A657" s="40"/>
+      <c r="A657" s="40">
+        <v>45017</v>
+      </c>
       <c r="B657" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="C657" s="13"/>
+        <v>124</v>
+      </c>
+      <c r="C657" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D657" s="39"/>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H657" s="39"/>
+      <c r="G657" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H657" s="39">
+        <v>1</v>
+      </c>
       <c r="I657" s="9"/>
       <c r="J657" s="11"/>
-      <c r="K657" s="49" t="s">
-        <v>575</v>
+      <c r="K657" s="49">
+        <v>45028</v>
       </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B658" s="20" t="s">
-        <v>124</v>
+        <v>572</v>
       </c>
       <c r="C658" s="13">
         <v>1.25</v>
       </c>
-      <c r="D658" s="39"/>
+      <c r="D658" s="39">
+        <v>2</v>
+      </c>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
       <c r="G658" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H658" s="39">
-        <v>1</v>
-      </c>
+      <c r="H658" s="39"/>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
-      <c r="K658" s="49">
-        <v>45093</v>
+      <c r="K658" s="20" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A659" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="C659" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C659" s="13"/>
       <c r="D659" s="39"/>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
-      <c r="G659" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G659" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H659" s="39"/>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
-      <c r="K659" s="49">
-        <v>45114</v>
+      <c r="K659" s="49" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="40"/>
+      <c r="A660" s="40">
+        <v>45078</v>
+      </c>
       <c r="B660" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C660" s="13"/>
+      <c r="C660" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D660" s="39"/>
       <c r="E660" s="9"/>
       <c r="F660" s="20"/>
-      <c r="G660" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G660" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H660" s="39">
         <v>1</v>
@@ -17797,38 +17796,38 @@
       <c r="I660" s="9"/>
       <c r="J660" s="11"/>
       <c r="K660" s="49">
-        <v>45127</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B661" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="C661" s="13"/>
-      <c r="D661" s="39">
-        <v>2</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="C661" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D661" s="39"/>
       <c r="E661" s="9"/>
       <c r="F661" s="20"/>
-      <c r="G661" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G661" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H661" s="39"/>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
-      <c r="K661" s="20" t="s">
-        <v>581</v>
+      <c r="K661" s="49">
+        <v>45114</v>
       </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A662" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B662" s="20"/>
+      <c r="A662" s="40"/>
+      <c r="B662" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C662" s="13"/>
       <c r="D662" s="39"/>
       <c r="E662" s="9"/>
@@ -17837,34 +17836,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H662" s="39"/>
+      <c r="H662" s="39">
+        <v>1</v>
+      </c>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
-      <c r="K662" s="20"/>
+      <c r="K662" s="49">
+        <v>45127</v>
+      </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B663" s="20"/>
-      <c r="C663" s="13"/>
-      <c r="D663" s="39"/>
+        <v>45139</v>
+      </c>
+      <c r="B663" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="C663" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D663" s="39">
+        <v>2</v>
+      </c>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G663" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H663" s="39"/>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
-      <c r="K663" s="20"/>
+      <c r="K663" s="20" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B664" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B664" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C664" s="13"/>
       <c r="D664" s="39"/>
       <c r="E664" s="9"/>
@@ -17873,14 +17886,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H664" s="39"/>
+      <c r="H664" s="39">
+        <v>1</v>
+      </c>
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
-      <c r="K664" s="20"/>
+      <c r="K664" s="49">
+        <v>45188</v>
+      </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17898,7 +17915,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17916,7 +17933,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17934,7 +17951,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17952,7 +17969,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17970,7 +17987,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17988,7 +18005,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18006,7 +18023,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18024,7 +18041,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18042,7 +18059,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18060,7 +18077,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18078,7 +18095,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18096,7 +18113,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18114,7 +18131,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18132,7 +18149,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18150,7 +18167,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18168,7 +18185,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18186,7 +18203,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18204,7 +18221,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18222,7 +18239,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18240,7 +18257,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18258,7 +18275,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18276,7 +18293,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18294,7 +18311,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18312,7 +18329,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18330,7 +18347,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18348,7 +18365,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18366,7 +18383,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18384,7 +18401,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18402,7 +18419,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18420,7 +18437,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18438,7 +18455,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18456,7 +18473,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18474,7 +18491,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18492,7 +18509,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18510,7 +18527,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18528,7 +18545,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18546,7 +18563,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18564,7 +18581,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18582,7 +18599,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18600,7 +18617,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18618,7 +18635,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18636,7 +18653,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18654,7 +18671,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18672,7 +18689,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18690,7 +18707,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18708,7 +18725,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18726,7 +18743,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18744,7 +18761,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18762,7 +18779,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18780,7 +18797,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18798,7 +18815,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18816,7 +18833,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18834,7 +18851,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18852,7 +18869,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18870,7 +18887,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18888,7 +18905,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18906,7 +18923,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18924,7 +18941,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18942,7 +18959,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18960,7 +18977,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18978,7 +18995,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18996,7 +19013,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19014,7 +19031,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19032,7 +19049,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19050,7 +19067,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19068,7 +19085,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19086,7 +19103,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19104,7 +19121,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19122,7 +19139,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19140,7 +19157,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19158,7 +19175,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19176,7 +19193,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19194,7 +19211,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19212,7 +19229,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19230,7 +19247,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19248,7 +19265,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19266,7 +19283,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19284,7 +19301,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19302,7 +19319,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19320,7 +19337,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19338,7 +19355,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19356,7 +19373,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19374,7 +19391,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19392,7 +19409,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19410,7 +19427,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19428,7 +19445,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19446,7 +19463,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19464,7 +19481,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19482,7 +19499,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19500,7 +19517,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19518,7 +19535,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19536,7 +19553,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19554,7 +19571,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19572,7 +19589,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19590,7 +19607,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>48153</v>
+        <v>48092</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19608,7 +19625,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48183</v>
+        <v>48122</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19626,7 +19643,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48214</v>
+        <v>48153</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19644,7 +19661,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>48245</v>
+        <v>48183</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19662,7 +19679,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>48274</v>
+        <v>48214</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19680,7 +19697,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>48305</v>
+        <v>48245</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19698,7 +19715,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>48335</v>
+        <v>48274</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19716,7 +19733,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>48366</v>
+        <v>48305</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19734,7 +19751,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>48396</v>
+        <v>48335</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19752,7 +19769,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>48427</v>
+        <v>48366</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19770,7 +19787,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>48458</v>
+        <v>48396</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19788,7 +19805,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>48488</v>
+        <v>48427</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19806,7 +19823,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>48519</v>
+        <v>48458</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19824,7 +19841,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>48549</v>
+        <v>48488</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19842,7 +19859,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>48580</v>
+        <v>48519</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19860,7 +19877,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>48611</v>
+        <v>48549</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19878,7 +19895,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>48639</v>
+        <v>48580</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19896,7 +19913,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>48670</v>
+        <v>48611</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19914,7 +19931,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>48700</v>
+        <v>48639</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19932,7 +19949,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>48731</v>
+        <v>48670</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19950,7 +19967,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>48761</v>
+        <v>48700</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19968,7 +19985,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>48792</v>
+        <v>48731</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19986,7 +20003,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>48823</v>
+        <v>48761</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -20004,7 +20021,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>48853</v>
+        <v>48792</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -20022,7 +20039,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>48884</v>
+        <v>48823</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -20040,7 +20057,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>48914</v>
+        <v>48853</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -20058,7 +20075,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>48945</v>
+        <v>48884</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -20076,7 +20093,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>48976</v>
+        <v>48914</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -20094,7 +20111,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>49004</v>
+        <v>48945</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -20112,7 +20129,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>49035</v>
+        <v>48976</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -20130,7 +20147,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>49065</v>
+        <v>49004</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -20148,7 +20165,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>49096</v>
+        <v>49035</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -20166,7 +20183,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>49126</v>
+        <v>49065</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -20184,7 +20201,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>49157</v>
+        <v>49096</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -20202,7 +20219,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>49188</v>
+        <v>49126</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -20220,7 +20237,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>49218</v>
+        <v>49157</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -20238,7 +20255,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>49249</v>
+        <v>49188</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -20256,7 +20273,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>49279</v>
+        <v>49218</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -20274,7 +20291,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>49310</v>
+        <v>49249</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -20292,7 +20309,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
-        <v>49341</v>
+        <v>49279</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -20310,7 +20327,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
-        <v>49369</v>
+        <v>49310</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -20328,7 +20345,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
-        <v>49400</v>
+        <v>49341</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20346,7 +20363,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
-        <v>49430</v>
+        <v>49369</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20364,7 +20381,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
-        <v>49461</v>
+        <v>49400</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20382,7 +20399,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
-        <v>49491</v>
+        <v>49430</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20400,7 +20417,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
-        <v>49522</v>
+        <v>49461</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20418,7 +20435,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
-        <v>49553</v>
+        <v>49491</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20436,7 +20453,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
-        <v>49583</v>
+        <v>49522</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20454,7 +20471,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
-        <v>49614</v>
+        <v>49553</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20472,7 +20489,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
-        <v>49644</v>
+        <v>49583</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20490,7 +20507,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
-        <v>49675</v>
+        <v>49614</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20508,7 +20525,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
-        <v>49706</v>
+        <v>49644</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20526,7 +20543,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
-        <v>49735</v>
+        <v>49675</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20544,7 +20561,7 @@
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40">
-        <v>49766</v>
+        <v>49706</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20562,7 +20579,7 @@
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40">
-        <v>49796</v>
+        <v>49735</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20580,7 +20597,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40">
-        <v>49827</v>
+        <v>49766</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20598,7 +20615,7 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40">
-        <v>49857</v>
+        <v>49796</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20616,7 +20633,7 @@
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40">
-        <v>49888</v>
+        <v>49827</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20634,7 +20651,7 @@
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40">
-        <v>49919</v>
+        <v>49857</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -20652,7 +20669,7 @@
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40">
-        <v>49949</v>
+        <v>49888</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -20670,7 +20687,7 @@
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="40">
-        <v>49980</v>
+        <v>49919</v>
       </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -20687,7 +20704,9 @@
       <c r="K820" s="20"/>
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A821" s="40"/>
+      <c r="A821" s="40">
+        <v>49949</v>
+      </c>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
       <c r="D821" s="39"/>
@@ -20703,7 +20722,9 @@
       <c r="K821" s="20"/>
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A822" s="40"/>
+      <c r="A822" s="40">
+        <v>49980</v>
+      </c>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
       <c r="D822" s="39"/>
@@ -20767,20 +20788,52 @@
       <c r="K825" s="20"/>
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A826" s="41"/>
-      <c r="B826" s="15"/>
-      <c r="C826" s="42"/>
-      <c r="D826" s="43"/>
+      <c r="A826" s="40"/>
+      <c r="B826" s="20"/>
+      <c r="C826" s="13"/>
+      <c r="D826" s="39"/>
       <c r="E826" s="9"/>
-      <c r="F826" s="15"/>
-      <c r="G826" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H826" s="43"/>
+      <c r="F826" s="20"/>
+      <c r="G826" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H826" s="39"/>
       <c r="I826" s="9"/>
-      <c r="J826" s="12"/>
-      <c r="K826" s="15"/>
+      <c r="J826" s="11"/>
+      <c r="K826" s="20"/>
+    </row>
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A827" s="40"/>
+      <c r="B827" s="20"/>
+      <c r="C827" s="13"/>
+      <c r="D827" s="39"/>
+      <c r="E827" s="9"/>
+      <c r="F827" s="20"/>
+      <c r="G827" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H827" s="39"/>
+      <c r="I827" s="9"/>
+      <c r="J827" s="11"/>
+      <c r="K827" s="20"/>
+    </row>
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A828" s="41"/>
+      <c r="B828" s="15"/>
+      <c r="C828" s="42"/>
+      <c r="D828" s="43"/>
+      <c r="E828" s="9"/>
+      <c r="F828" s="15"/>
+      <c r="G828" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H828" s="43"/>
+      <c r="I828" s="9"/>
+      <c r="J828" s="12"/>
+      <c r="K828" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20894,11 +20947,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J3" s="47">
         <v>36321</v>

--- a/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="589">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1977,6 +1977,9 @@
   </si>
   <si>
     <t>12/27,28,29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2680,7 +2683,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K831" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K832" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3009,11 +3012,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L831"/>
+  <dimension ref="A2:L832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A661" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="J678" sqref="J678"/>
+      <selection pane="bottomLeft" activeCell="E667" sqref="E667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,7 +3183,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.731999999999971</v>
+        <v>60.231999999999971</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3190,7 +3193,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.291999999999973</v>
+        <v>47.791999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18005,15 +18008,17 @@
       <c r="B669" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C669" s="13"/>
+      <c r="C669" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D669" s="39">
         <v>3</v>
       </c>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G669" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H669" s="39"/>
       <c r="I669" s="9"/>
@@ -18027,13 +18032,15 @@
         <v>45261</v>
       </c>
       <c r="B670" s="20"/>
-      <c r="C670" s="13"/>
+      <c r="C670" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D670" s="39"/>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G670" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H670" s="39"/>
       <c r="I670" s="9"/>
@@ -18041,8 +18048,8 @@
       <c r="K670" s="20"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A671" s="40">
-        <v>45292</v>
+      <c r="A671" s="48" t="s">
+        <v>588</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18060,9 +18067,11 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B672" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B672" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C672" s="13"/>
       <c r="D672" s="39"/>
       <c r="E672" s="9"/>
@@ -18071,14 +18080,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H672" s="39"/>
+      <c r="H672" s="39">
+        <v>1</v>
+      </c>
       <c r="I672" s="9"/>
       <c r="J672" s="11"/>
-      <c r="K672" s="20"/>
+      <c r="K672" s="49">
+        <v>45300</v>
+      </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18096,7 +18109,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18114,7 +18127,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18132,7 +18145,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18150,7 +18163,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18168,7 +18181,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18186,7 +18199,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18204,7 +18217,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18222,7 +18235,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18240,7 +18253,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18258,7 +18271,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18276,7 +18289,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18294,7 +18307,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18312,7 +18325,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18330,7 +18343,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18348,7 +18361,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18366,7 +18379,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18384,7 +18397,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18402,7 +18415,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18420,7 +18433,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18438,7 +18451,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18456,7 +18469,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18474,7 +18487,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18492,7 +18505,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18510,7 +18523,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18528,7 +18541,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18546,7 +18559,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18564,7 +18577,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18582,7 +18595,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18600,7 +18613,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18618,7 +18631,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18636,7 +18649,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18654,7 +18667,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18672,7 +18685,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18690,7 +18703,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18708,7 +18721,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18726,7 +18739,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18744,7 +18757,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18762,7 +18775,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18780,7 +18793,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18798,7 +18811,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18816,7 +18829,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18834,7 +18847,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18852,7 +18865,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18870,7 +18883,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18888,7 +18901,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18906,7 +18919,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18924,7 +18937,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18942,7 +18955,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18960,7 +18973,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18978,7 +18991,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18996,7 +19009,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19014,7 +19027,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19032,7 +19045,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19050,7 +19063,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19068,7 +19081,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19086,7 +19099,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19104,7 +19117,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19122,7 +19135,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19140,7 +19153,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19158,7 +19171,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19176,7 +19189,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19194,7 +19207,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19212,7 +19225,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19230,7 +19243,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19248,7 +19261,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19266,7 +19279,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19284,7 +19297,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19302,7 +19315,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19320,7 +19333,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19338,7 +19351,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19356,7 +19369,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19374,7 +19387,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19392,7 +19405,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19410,7 +19423,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19428,7 +19441,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19446,7 +19459,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19464,7 +19477,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19482,7 +19495,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19500,7 +19513,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19518,7 +19531,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19536,7 +19549,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19554,7 +19567,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19572,7 +19585,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19590,7 +19603,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19608,7 +19621,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19626,7 +19639,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19644,7 +19657,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19662,7 +19675,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19680,7 +19693,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19698,7 +19711,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19716,7 +19729,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19734,7 +19747,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19752,7 +19765,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19770,7 +19783,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19788,7 +19801,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19806,7 +19819,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19824,7 +19837,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19842,7 +19855,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19860,7 +19873,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19878,7 +19891,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19896,7 +19909,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19914,7 +19927,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19932,7 +19945,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19950,7 +19963,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19968,7 +19981,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19986,7 +19999,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -20004,7 +20017,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -20022,7 +20035,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -20040,7 +20053,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -20058,7 +20071,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -20076,7 +20089,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -20094,7 +20107,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -20112,7 +20125,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -20130,7 +20143,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -20148,7 +20161,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -20166,7 +20179,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -20184,7 +20197,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -20202,7 +20215,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -20220,7 +20233,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -20238,7 +20251,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -20256,7 +20269,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -20274,7 +20287,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -20292,7 +20305,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -20310,7 +20323,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -20328,7 +20341,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -20346,7 +20359,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -20364,7 +20377,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -20382,7 +20395,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20400,7 +20413,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20418,7 +20431,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
-        <v>49310</v>
+        <v>49279</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20436,7 +20449,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
-        <v>49341</v>
+        <v>49310</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20454,7 +20467,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
-        <v>49369</v>
+        <v>49341</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20472,7 +20485,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
-        <v>49400</v>
+        <v>49369</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20490,7 +20503,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
-        <v>49430</v>
+        <v>49400</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20508,7 +20521,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
-        <v>49461</v>
+        <v>49430</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20526,7 +20539,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
-        <v>49491</v>
+        <v>49461</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20544,7 +20557,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
-        <v>49522</v>
+        <v>49491</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20562,7 +20575,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
-        <v>49553</v>
+        <v>49522</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20580,7 +20593,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
-        <v>49583</v>
+        <v>49553</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20598,7 +20611,7 @@
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40">
-        <v>49614</v>
+        <v>49583</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20616,7 +20629,7 @@
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40">
-        <v>49644</v>
+        <v>49614</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20634,7 +20647,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40">
-        <v>49675</v>
+        <v>49644</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20652,7 +20665,7 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40">
-        <v>49706</v>
+        <v>49675</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20670,7 +20683,7 @@
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40">
-        <v>49735</v>
+        <v>49706</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20688,7 +20701,7 @@
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40">
-        <v>49766</v>
+        <v>49735</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -20706,7 +20719,7 @@
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40">
-        <v>49796</v>
+        <v>49766</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -20724,7 +20737,7 @@
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="40">
-        <v>49827</v>
+        <v>49796</v>
       </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -20742,7 +20755,7 @@
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="40">
-        <v>49857</v>
+        <v>49827</v>
       </c>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
@@ -20760,7 +20773,7 @@
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="40">
-        <v>49888</v>
+        <v>49857</v>
       </c>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
@@ -20778,7 +20791,7 @@
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="40">
-        <v>49919</v>
+        <v>49888</v>
       </c>
       <c r="B823" s="20"/>
       <c r="C823" s="13"/>
@@ -20796,7 +20809,7 @@
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="40">
-        <v>49949</v>
+        <v>49919</v>
       </c>
       <c r="B824" s="20"/>
       <c r="C824" s="13"/>
@@ -20814,7 +20827,7 @@
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="40">
-        <v>49980</v>
+        <v>49949</v>
       </c>
       <c r="B825" s="20"/>
       <c r="C825" s="13"/>
@@ -20831,7 +20844,9 @@
       <c r="K825" s="20"/>
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A826" s="40"/>
+      <c r="A826" s="40">
+        <v>49980</v>
+      </c>
       <c r="B826" s="20"/>
       <c r="C826" s="13"/>
       <c r="D826" s="39"/>
@@ -20911,20 +20926,36 @@
       <c r="K830" s="20"/>
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A831" s="41"/>
-      <c r="B831" s="15"/>
-      <c r="C831" s="42"/>
-      <c r="D831" s="43"/>
+      <c r="A831" s="40"/>
+      <c r="B831" s="20"/>
+      <c r="C831" s="13"/>
+      <c r="D831" s="39"/>
       <c r="E831" s="9"/>
-      <c r="F831" s="15"/>
-      <c r="G831" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H831" s="43"/>
+      <c r="F831" s="20"/>
+      <c r="G831" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H831" s="39"/>
       <c r="I831" s="9"/>
-      <c r="J831" s="12"/>
-      <c r="K831" s="15"/>
+      <c r="J831" s="11"/>
+      <c r="K831" s="20"/>
+    </row>
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A832" s="41"/>
+      <c r="B832" s="15"/>
+      <c r="C832" s="42"/>
+      <c r="D832" s="43"/>
+      <c r="E832" s="9"/>
+      <c r="F832" s="15"/>
+      <c r="G832" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H832" s="43"/>
+      <c r="I832" s="9"/>
+      <c r="J832" s="12"/>
+      <c r="K832" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="596">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1980,6 +1980,27 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(1-3-23)</t>
+  </si>
+  <si>
+    <t>UT(1-1-18)</t>
+  </si>
+  <si>
+    <t>UT(0-4-2)</t>
+  </si>
+  <si>
+    <t>UT(1-1-36)</t>
+  </si>
+  <si>
+    <t>UT(1-0-1)</t>
+  </si>
+  <si>
+    <t>UT(1-0-12)</t>
+  </si>
+  <si>
+    <t>UT(0-4-8)</t>
   </si>
 </sst>
 </file>
@@ -2683,7 +2704,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K832" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K841" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3012,11 +3033,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L832"/>
+  <dimension ref="A2:L841"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A661" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E667" sqref="E667"/>
+      <pane ySplit="4425" topLeftCell="A658" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E665" sqref="E665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3204,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.231999999999971</v>
+        <v>50.399000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -17812,159 +17833,147 @@
       </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A661" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="C661" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D661" s="39"/>
+        <v>595</v>
+      </c>
+      <c r="C661" s="13"/>
+      <c r="D661" s="39">
+        <v>0.51700000000000002</v>
+      </c>
       <c r="E661" s="9"/>
       <c r="F661" s="20"/>
-      <c r="G661" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G661" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H661" s="39"/>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
-      <c r="K661" s="49">
-        <v>45114</v>
-      </c>
+      <c r="K661" s="49"/>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A662" s="40"/>
+      <c r="A662" s="40">
+        <v>45108</v>
+      </c>
       <c r="B662" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C662" s="13"/>
+        <v>574</v>
+      </c>
+      <c r="C662" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D662" s="39"/>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
-      <c r="G662" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H662" s="39">
-        <v>1</v>
-      </c>
+      <c r="G662" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H662" s="39"/>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
       <c r="K662" s="49">
-        <v>45127</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="C663" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D663" s="39">
-        <v>2</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C663" s="13"/>
+      <c r="D663" s="39"/>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H663" s="39"/>
+      <c r="G663" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H663" s="39">
+        <v>1</v>
+      </c>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
-      <c r="K663" s="20" t="s">
-        <v>581</v>
+      <c r="K663" s="49">
+        <v>45127</v>
       </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A664" s="40"/>
       <c r="B664" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C664" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D664" s="39"/>
+        <v>594</v>
+      </c>
+      <c r="C664" s="13"/>
+      <c r="D664" s="39">
+        <v>1.0249999999999999</v>
+      </c>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H664" s="39">
-        <v>1</v>
-      </c>
+      <c r="G664" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H664" s="39"/>
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
-      <c r="K664" s="49">
-        <v>45188</v>
-      </c>
+      <c r="K664" s="49"/>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A665" s="40"/>
+      <c r="A665" s="40">
+        <v>45139</v>
+      </c>
       <c r="B665" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C665" s="13"/>
-      <c r="D665" s="39"/>
+        <v>572</v>
+      </c>
+      <c r="C665" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D665" s="39">
+        <v>2</v>
+      </c>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
-      <c r="G665" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H665" s="39">
-        <v>2</v>
-      </c>
+      <c r="G665" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H665" s="39"/>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
-      <c r="K665" s="49" t="s">
-        <v>585</v>
+      <c r="K665" s="20" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C666" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D666" s="39"/>
+        <v>580</v>
+      </c>
+      <c r="C666" s="13"/>
+      <c r="D666" s="39">
+        <v>1</v>
+      </c>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H666" s="39">
-        <v>1</v>
-      </c>
+      <c r="G666" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H666" s="39"/>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
       <c r="K666" s="49">
-        <v>45209</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="C667" s="13"/>
       <c r="D667" s="39">
-        <v>2</v>
+        <v>1.002</v>
       </c>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
@@ -17975,22 +17984,24 @@
       <c r="H667" s="39"/>
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
-      <c r="K667" s="49" t="s">
-        <v>586</v>
-      </c>
+      <c r="K667" s="49"/>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="40"/>
+      <c r="A668" s="40">
+        <v>45170</v>
+      </c>
       <c r="B668" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C668" s="13"/>
+      <c r="C668" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D668" s="39"/>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G668" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H668" s="39">
         <v>1</v>
@@ -17998,102 +18009,104 @@
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
       <c r="K668" s="49">
-        <v>45224</v>
+        <v>45188</v>
       </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A669" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C669" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D669" s="39">
-        <v>3</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C669" s="13"/>
+      <c r="D669" s="39"/>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H669" s="39"/>
+      <c r="G669" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H669" s="39">
+        <v>2</v>
+      </c>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="20" t="s">
-        <v>587</v>
+      <c r="K669" s="49" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A670" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B670" s="20"/>
-      <c r="C670" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D670" s="39"/>
+      <c r="A670" s="40"/>
+      <c r="B670" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="C670" s="13"/>
+      <c r="D670" s="39">
+        <v>1.2</v>
+      </c>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G670" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H670" s="39"/>
       <c r="I670" s="9"/>
       <c r="J670" s="11"/>
-      <c r="K670" s="20"/>
+      <c r="K670" s="49"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A671" s="48" t="s">
-        <v>588</v>
-      </c>
-      <c r="B671" s="20"/>
-      <c r="C671" s="13"/>
+      <c r="A671" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B671" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C671" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D671" s="39"/>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
-      <c r="G671" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H671" s="39"/>
+      <c r="G671" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H671" s="39">
+        <v>1</v>
+      </c>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
-      <c r="K671" s="20"/>
+      <c r="K671" s="49">
+        <v>45209</v>
+      </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A672" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
-        <v>124</v>
+        <v>572</v>
       </c>
       <c r="C672" s="13"/>
-      <c r="D672" s="39"/>
+      <c r="D672" s="39">
+        <v>2</v>
+      </c>
       <c r="E672" s="9"/>
       <c r="F672" s="20"/>
       <c r="G672" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H672" s="39">
-        <v>1</v>
-      </c>
+      <c r="H672" s="39"/>
       <c r="I672" s="9"/>
       <c r="J672" s="11"/>
-      <c r="K672" s="49">
-        <v>45300</v>
+      <c r="K672" s="49" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B673" s="20"/>
+      <c r="A673" s="40"/>
+      <c r="B673" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C673" s="13"/>
       <c r="D673" s="39"/>
       <c r="E673" s="9"/>
@@ -18102,18 +18115,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H673" s="39"/>
+      <c r="H673" s="39">
+        <v>1</v>
+      </c>
       <c r="I673" s="9"/>
       <c r="J673" s="11"/>
-      <c r="K673" s="20"/>
+      <c r="K673" s="49">
+        <v>45224</v>
+      </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B674" s="20"/>
+      <c r="A674" s="40"/>
+      <c r="B674" s="20" t="s">
+        <v>580</v>
+      </c>
       <c r="C674" s="13"/>
-      <c r="D674" s="39"/>
+      <c r="D674" s="39">
+        <v>1</v>
+      </c>
       <c r="E674" s="9"/>
       <c r="F674" s="20"/>
       <c r="G674" s="13" t="str">
@@ -18123,15 +18142,19 @@
       <c r="H674" s="39"/>
       <c r="I674" s="9"/>
       <c r="J674" s="11"/>
-      <c r="K674" s="20"/>
+      <c r="K674" s="49">
+        <v>45230</v>
+      </c>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B675" s="20"/>
+      <c r="A675" s="40"/>
+      <c r="B675" s="20" t="s">
+        <v>591</v>
+      </c>
       <c r="C675" s="13"/>
-      <c r="D675" s="39"/>
+      <c r="D675" s="39">
+        <v>0.504</v>
+      </c>
       <c r="E675" s="9"/>
       <c r="F675" s="20"/>
       <c r="G675" s="13" t="str">
@@ -18141,33 +18164,43 @@
       <c r="H675" s="39"/>
       <c r="I675" s="9"/>
       <c r="J675" s="11"/>
-      <c r="K675" s="20"/>
+      <c r="K675" s="49"/>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B676" s="20"/>
-      <c r="C676" s="13"/>
-      <c r="D676" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B676" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C676" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D676" s="39">
+        <v>3</v>
+      </c>
       <c r="E676" s="9"/>
       <c r="F676" s="20"/>
-      <c r="G676" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G676" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H676" s="39"/>
       <c r="I676" s="9"/>
       <c r="J676" s="11"/>
-      <c r="K676" s="20"/>
+      <c r="K676" s="20" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A677" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B677" s="20"/>
+      <c r="A677" s="40"/>
+      <c r="B677" s="20" t="s">
+        <v>590</v>
+      </c>
       <c r="C677" s="13"/>
-      <c r="D677" s="39"/>
+      <c r="D677" s="39">
+        <v>1.1619999999999999</v>
+      </c>
       <c r="E677" s="9"/>
       <c r="F677" s="20"/>
       <c r="G677" s="13" t="str">
@@ -18181,29 +18214,39 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B678" s="20"/>
-      <c r="C678" s="13"/>
-      <c r="D678" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B678" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="C678" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D678" s="39">
+        <v>1</v>
+      </c>
       <c r="E678" s="9"/>
       <c r="F678" s="20"/>
-      <c r="G678" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G678" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H678" s="39"/>
       <c r="I678" s="9"/>
       <c r="J678" s="11"/>
-      <c r="K678" s="20"/>
+      <c r="K678" s="49">
+        <v>45267</v>
+      </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A679" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B679" s="20"/>
+      <c r="A679" s="40"/>
+      <c r="B679" s="20" t="s">
+        <v>589</v>
+      </c>
       <c r="C679" s="13"/>
-      <c r="D679" s="39"/>
+      <c r="D679" s="39">
+        <v>1.423</v>
+      </c>
       <c r="E679" s="9"/>
       <c r="F679" s="20"/>
       <c r="G679" s="13" t="str">
@@ -18213,11 +18256,11 @@
       <c r="H679" s="39"/>
       <c r="I679" s="9"/>
       <c r="J679" s="11"/>
-      <c r="K679" s="20"/>
+      <c r="K679" s="49"/>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A680" s="40">
-        <v>45536</v>
+      <c r="A680" s="48" t="s">
+        <v>588</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18235,9 +18278,11 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45566</v>
-      </c>
-      <c r="B681" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B681" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C681" s="13"/>
       <c r="D681" s="39"/>
       <c r="E681" s="9"/>
@@ -18246,14 +18291,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H681" s="39"/>
+      <c r="H681" s="39">
+        <v>1</v>
+      </c>
       <c r="I681" s="9"/>
       <c r="J681" s="11"/>
-      <c r="K681" s="20"/>
+      <c r="K681" s="49">
+        <v>45300</v>
+      </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45597</v>
+        <v>45323</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18271,7 +18320,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45627</v>
+        <v>45352</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18289,7 +18338,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45658</v>
+        <v>45383</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18307,7 +18356,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45689</v>
+        <v>45413</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18325,7 +18374,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45717</v>
+        <v>45444</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18343,7 +18392,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45748</v>
+        <v>45474</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18361,7 +18410,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45778</v>
+        <v>45505</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18379,7 +18428,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>45809</v>
+        <v>45536</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18397,7 +18446,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>45839</v>
+        <v>45566</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18415,7 +18464,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>45870</v>
+        <v>45597</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18433,7 +18482,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>45901</v>
+        <v>45627</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18451,7 +18500,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18469,7 +18518,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>45962</v>
+        <v>45689</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18487,7 +18536,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>45992</v>
+        <v>45717</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18505,7 +18554,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46023</v>
+        <v>45748</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18523,7 +18572,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46054</v>
+        <v>45778</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18541,7 +18590,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46082</v>
+        <v>45809</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18559,7 +18608,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46113</v>
+        <v>45839</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18577,7 +18626,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46143</v>
+        <v>45870</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18595,7 +18644,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46174</v>
+        <v>45901</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18613,7 +18662,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>46204</v>
+        <v>45931</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18631,7 +18680,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>46235</v>
+        <v>45962</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18649,7 +18698,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>46266</v>
+        <v>45992</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18667,7 +18716,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>46296</v>
+        <v>46023</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18685,7 +18734,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>46327</v>
+        <v>46054</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18703,7 +18752,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>46357</v>
+        <v>46082</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18721,7 +18770,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>46388</v>
+        <v>46113</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18739,7 +18788,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>46419</v>
+        <v>46143</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18757,7 +18806,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>46447</v>
+        <v>46174</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18775,7 +18824,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>46478</v>
+        <v>46204</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18793,7 +18842,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>46508</v>
+        <v>46235</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18811,7 +18860,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>46539</v>
+        <v>46266</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18829,7 +18878,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>46569</v>
+        <v>46296</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18847,7 +18896,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>46600</v>
+        <v>46327</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18865,7 +18914,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>46631</v>
+        <v>46357</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18883,7 +18932,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>46661</v>
+        <v>46388</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18901,7 +18950,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>46692</v>
+        <v>46419</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18919,7 +18968,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>46722</v>
+        <v>46447</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18937,7 +18986,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>46753</v>
+        <v>46478</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18955,7 +19004,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>46784</v>
+        <v>46508</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18973,7 +19022,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>46813</v>
+        <v>46539</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18991,7 +19040,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>46844</v>
+        <v>46569</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19009,7 +19058,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>46874</v>
+        <v>46600</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19027,7 +19076,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>46905</v>
+        <v>46631</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19045,7 +19094,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>46935</v>
+        <v>46661</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19063,7 +19112,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>46966</v>
+        <v>46692</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19081,7 +19130,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>46997</v>
+        <v>46722</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19099,7 +19148,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47027</v>
+        <v>46753</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19117,7 +19166,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47058</v>
+        <v>46784</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19135,7 +19184,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47088</v>
+        <v>46813</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19153,7 +19202,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47119</v>
+        <v>46844</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19171,7 +19220,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47150</v>
+        <v>46874</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19189,7 +19238,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>47178</v>
+        <v>46905</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19207,7 +19256,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>47209</v>
+        <v>46935</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19225,7 +19274,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>47239</v>
+        <v>46966</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19243,7 +19292,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>47270</v>
+        <v>46997</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19261,7 +19310,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>47300</v>
+        <v>47027</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19279,7 +19328,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>47331</v>
+        <v>47058</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19297,7 +19346,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>47362</v>
+        <v>47088</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19315,7 +19364,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>47392</v>
+        <v>47119</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19333,7 +19382,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>47423</v>
+        <v>47150</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19351,7 +19400,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>47453</v>
+        <v>47178</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19369,7 +19418,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>47484</v>
+        <v>47209</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19387,7 +19436,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>47515</v>
+        <v>47239</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19405,7 +19454,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>47543</v>
+        <v>47270</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19423,7 +19472,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>47574</v>
+        <v>47300</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19441,7 +19490,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>47604</v>
+        <v>47331</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19459,7 +19508,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>47635</v>
+        <v>47362</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19477,7 +19526,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>47665</v>
+        <v>47392</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19495,7 +19544,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>47696</v>
+        <v>47423</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19513,7 +19562,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>47727</v>
+        <v>47453</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19531,7 +19580,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>47757</v>
+        <v>47484</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19549,7 +19598,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>47788</v>
+        <v>47515</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19567,7 +19616,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>47818</v>
+        <v>47543</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19585,7 +19634,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>47849</v>
+        <v>47574</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19603,7 +19652,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>47880</v>
+        <v>47604</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19621,7 +19670,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>47908</v>
+        <v>47635</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19639,7 +19688,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>47939</v>
+        <v>47665</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19657,7 +19706,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>47969</v>
+        <v>47696</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19675,7 +19724,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48000</v>
+        <v>47727</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19693,7 +19742,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48030</v>
+        <v>47757</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19711,7 +19760,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>48061</v>
+        <v>47788</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19729,7 +19778,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>48092</v>
+        <v>47818</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19747,7 +19796,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>48122</v>
+        <v>47849</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19765,7 +19814,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>48153</v>
+        <v>47880</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19783,7 +19832,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>48183</v>
+        <v>47908</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19801,7 +19850,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>48214</v>
+        <v>47939</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19819,7 +19868,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>48245</v>
+        <v>47969</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19837,7 +19886,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>48274</v>
+        <v>48000</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19855,7 +19904,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>48305</v>
+        <v>48030</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19873,7 +19922,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>48335</v>
+        <v>48061</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19891,7 +19940,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>48366</v>
+        <v>48092</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19909,7 +19958,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>48396</v>
+        <v>48122</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19927,7 +19976,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>48427</v>
+        <v>48153</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19945,7 +19994,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>48458</v>
+        <v>48183</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19963,7 +20012,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>48488</v>
+        <v>48214</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19981,7 +20030,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>48519</v>
+        <v>48245</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19999,7 +20048,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>48549</v>
+        <v>48274</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -20017,7 +20066,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>48580</v>
+        <v>48305</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -20035,7 +20084,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>48611</v>
+        <v>48335</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -20053,7 +20102,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>48639</v>
+        <v>48366</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -20071,7 +20120,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>48670</v>
+        <v>48396</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -20089,7 +20138,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>48700</v>
+        <v>48427</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -20107,7 +20156,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>48731</v>
+        <v>48458</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -20125,7 +20174,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>48761</v>
+        <v>48488</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -20143,7 +20192,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>48792</v>
+        <v>48519</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -20161,7 +20210,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>48823</v>
+        <v>48549</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -20179,7 +20228,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>48853</v>
+        <v>48580</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -20197,7 +20246,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>48884</v>
+        <v>48611</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -20215,7 +20264,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>48914</v>
+        <v>48639</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -20233,7 +20282,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>48945</v>
+        <v>48670</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -20251,7 +20300,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>48976</v>
+        <v>48700</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -20269,7 +20318,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>49004</v>
+        <v>48731</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -20287,7 +20336,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>49035</v>
+        <v>48761</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -20305,7 +20354,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>49065</v>
+        <v>48792</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -20323,7 +20372,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>49096</v>
+        <v>48823</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -20341,7 +20390,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>49126</v>
+        <v>48853</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -20359,7 +20408,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
-        <v>49157</v>
+        <v>48884</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -20377,7 +20426,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
-        <v>49188</v>
+        <v>48914</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -20395,7 +20444,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
-        <v>49218</v>
+        <v>48945</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20413,7 +20462,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
-        <v>49249</v>
+        <v>48976</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20431,7 +20480,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
-        <v>49279</v>
+        <v>49004</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20449,7 +20498,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
-        <v>49310</v>
+        <v>49035</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20467,7 +20516,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
-        <v>49341</v>
+        <v>49065</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20485,7 +20534,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
-        <v>49369</v>
+        <v>49096</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20503,7 +20552,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
-        <v>49400</v>
+        <v>49126</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20521,7 +20570,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
-        <v>49430</v>
+        <v>49157</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20539,7 +20588,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
-        <v>49461</v>
+        <v>49188</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20557,7 +20606,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
-        <v>49491</v>
+        <v>49218</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20575,7 +20624,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
-        <v>49522</v>
+        <v>49249</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20593,7 +20642,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
-        <v>49553</v>
+        <v>49279</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20611,7 +20660,7 @@
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40">
-        <v>49583</v>
+        <v>49310</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20629,7 +20678,7 @@
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40">
-        <v>49614</v>
+        <v>49341</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20647,7 +20696,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40">
-        <v>49644</v>
+        <v>49369</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20665,7 +20714,7 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40">
-        <v>49675</v>
+        <v>49400</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20683,7 +20732,7 @@
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40">
-        <v>49706</v>
+        <v>49430</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20701,7 +20750,7 @@
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40">
-        <v>49735</v>
+        <v>49461</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -20719,7 +20768,7 @@
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40">
-        <v>49766</v>
+        <v>49491</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -20737,7 +20786,7 @@
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="40">
-        <v>49796</v>
+        <v>49522</v>
       </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -20755,7 +20804,7 @@
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="40">
-        <v>49827</v>
+        <v>49553</v>
       </c>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
@@ -20773,7 +20822,7 @@
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="40">
-        <v>49857</v>
+        <v>49583</v>
       </c>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
@@ -20791,7 +20840,7 @@
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="40">
-        <v>49888</v>
+        <v>49614</v>
       </c>
       <c r="B823" s="20"/>
       <c r="C823" s="13"/>
@@ -20809,7 +20858,7 @@
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="40">
-        <v>49919</v>
+        <v>49644</v>
       </c>
       <c r="B824" s="20"/>
       <c r="C824" s="13"/>
@@ -20827,7 +20876,7 @@
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="40">
-        <v>49949</v>
+        <v>49675</v>
       </c>
       <c r="B825" s="20"/>
       <c r="C825" s="13"/>
@@ -20845,7 +20894,7 @@
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="40">
-        <v>49980</v>
+        <v>49706</v>
       </c>
       <c r="B826" s="20"/>
       <c r="C826" s="13"/>
@@ -20862,7 +20911,9 @@
       <c r="K826" s="20"/>
     </row>
     <row r="827" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A827" s="40"/>
+      <c r="A827" s="40">
+        <v>49735</v>
+      </c>
       <c r="B827" s="20"/>
       <c r="C827" s="13"/>
       <c r="D827" s="39"/>
@@ -20878,7 +20929,9 @@
       <c r="K827" s="20"/>
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A828" s="40"/>
+      <c r="A828" s="40">
+        <v>49766</v>
+      </c>
       <c r="B828" s="20"/>
       <c r="C828" s="13"/>
       <c r="D828" s="39"/>
@@ -20894,7 +20947,9 @@
       <c r="K828" s="20"/>
     </row>
     <row r="829" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A829" s="40"/>
+      <c r="A829" s="40">
+        <v>49796</v>
+      </c>
       <c r="B829" s="20"/>
       <c r="C829" s="13"/>
       <c r="D829" s="39"/>
@@ -20910,7 +20965,9 @@
       <c r="K829" s="20"/>
     </row>
     <row r="830" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A830" s="40"/>
+      <c r="A830" s="40">
+        <v>49827</v>
+      </c>
       <c r="B830" s="20"/>
       <c r="C830" s="13"/>
       <c r="D830" s="39"/>
@@ -20926,7 +20983,9 @@
       <c r="K830" s="20"/>
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A831" s="40"/>
+      <c r="A831" s="40">
+        <v>49857</v>
+      </c>
       <c r="B831" s="20"/>
       <c r="C831" s="13"/>
       <c r="D831" s="39"/>
@@ -20942,20 +21001,172 @@
       <c r="K831" s="20"/>
     </row>
     <row r="832" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A832" s="41"/>
-      <c r="B832" s="15"/>
-      <c r="C832" s="42"/>
-      <c r="D832" s="43"/>
+      <c r="A832" s="40">
+        <v>49888</v>
+      </c>
+      <c r="B832" s="20"/>
+      <c r="C832" s="13"/>
+      <c r="D832" s="39"/>
       <c r="E832" s="9"/>
-      <c r="F832" s="15"/>
-      <c r="G832" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H832" s="43"/>
+      <c r="F832" s="20"/>
+      <c r="G832" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H832" s="39"/>
       <c r="I832" s="9"/>
-      <c r="J832" s="12"/>
-      <c r="K832" s="15"/>
+      <c r="J832" s="11"/>
+      <c r="K832" s="20"/>
+    </row>
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A833" s="40">
+        <v>49919</v>
+      </c>
+      <c r="B833" s="20"/>
+      <c r="C833" s="13"/>
+      <c r="D833" s="39"/>
+      <c r="E833" s="9"/>
+      <c r="F833" s="20"/>
+      <c r="G833" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H833" s="39"/>
+      <c r="I833" s="9"/>
+      <c r="J833" s="11"/>
+      <c r="K833" s="20"/>
+    </row>
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A834" s="40">
+        <v>49949</v>
+      </c>
+      <c r="B834" s="20"/>
+      <c r="C834" s="13"/>
+      <c r="D834" s="39"/>
+      <c r="E834" s="9"/>
+      <c r="F834" s="20"/>
+      <c r="G834" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H834" s="39"/>
+      <c r="I834" s="9"/>
+      <c r="J834" s="11"/>
+      <c r="K834" s="20"/>
+    </row>
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A835" s="40">
+        <v>49980</v>
+      </c>
+      <c r="B835" s="20"/>
+      <c r="C835" s="13"/>
+      <c r="D835" s="39"/>
+      <c r="E835" s="9"/>
+      <c r="F835" s="20"/>
+      <c r="G835" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H835" s="39"/>
+      <c r="I835" s="9"/>
+      <c r="J835" s="11"/>
+      <c r="K835" s="20"/>
+    </row>
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A836" s="40"/>
+      <c r="B836" s="20"/>
+      <c r="C836" s="13"/>
+      <c r="D836" s="39"/>
+      <c r="E836" s="9"/>
+      <c r="F836" s="20"/>
+      <c r="G836" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H836" s="39"/>
+      <c r="I836" s="9"/>
+      <c r="J836" s="11"/>
+      <c r="K836" s="20"/>
+    </row>
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A837" s="40"/>
+      <c r="B837" s="20"/>
+      <c r="C837" s="13"/>
+      <c r="D837" s="39"/>
+      <c r="E837" s="9"/>
+      <c r="F837" s="20"/>
+      <c r="G837" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H837" s="39"/>
+      <c r="I837" s="9"/>
+      <c r="J837" s="11"/>
+      <c r="K837" s="20"/>
+    </row>
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A838" s="40"/>
+      <c r="B838" s="20"/>
+      <c r="C838" s="13"/>
+      <c r="D838" s="39"/>
+      <c r="E838" s="9"/>
+      <c r="F838" s="20"/>
+      <c r="G838" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H838" s="39"/>
+      <c r="I838" s="9"/>
+      <c r="J838" s="11"/>
+      <c r="K838" s="20"/>
+    </row>
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A839" s="40"/>
+      <c r="B839" s="20"/>
+      <c r="C839" s="13"/>
+      <c r="D839" s="39"/>
+      <c r="E839" s="9"/>
+      <c r="F839" s="20"/>
+      <c r="G839" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H839" s="39"/>
+      <c r="I839" s="9"/>
+      <c r="J839" s="11"/>
+      <c r="K839" s="20"/>
+    </row>
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A840" s="40"/>
+      <c r="B840" s="20"/>
+      <c r="C840" s="13"/>
+      <c r="D840" s="39"/>
+      <c r="E840" s="9"/>
+      <c r="F840" s="20"/>
+      <c r="G840" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H840" s="39"/>
+      <c r="I840" s="9"/>
+      <c r="J840" s="11"/>
+      <c r="K840" s="20"/>
+    </row>
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A841" s="41"/>
+      <c r="B841" s="15"/>
+      <c r="C841" s="42"/>
+      <c r="D841" s="43"/>
+      <c r="E841" s="9"/>
+      <c r="F841" s="15"/>
+      <c r="G841" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H841" s="43"/>
+      <c r="I841" s="9"/>
+      <c r="J841" s="12"/>
+      <c r="K841" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -21066,14 +21277,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="11">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.04</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="J3" s="47">
         <v>36321</v>

--- a/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="600">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2001,6 +2001,18 @@
   </si>
   <si>
     <t>UT(0-4-8)</t>
+  </si>
+  <si>
+    <t>UT(0-4-58)</t>
+  </si>
+  <si>
+    <t>UT(1-5-23)</t>
+  </si>
+  <si>
+    <t>UT(0-0-54)</t>
+  </si>
+  <si>
+    <t>UT(0-0-15)</t>
   </si>
 </sst>
 </file>
@@ -2704,7 +2716,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K841" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K845" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3033,11 +3045,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L841"/>
+  <dimension ref="A2:L845"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A658" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E665" sqref="E665"/>
+      <pane ySplit="4425" topLeftCell="A649" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F658" sqref="F658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,7 +3216,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>50.399000000000001</v>
+        <v>47.947000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -17624,11 +17636,15 @@
       <c r="A652" s="41">
         <v>44927</v>
       </c>
-      <c r="B652" s="15"/>
+      <c r="B652" s="15" t="s">
+        <v>599</v>
+      </c>
       <c r="C652" s="42">
         <v>1.25</v>
       </c>
-      <c r="D652" s="43"/>
+      <c r="D652" s="43">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E652" s="50"/>
       <c r="F652" s="15"/>
       <c r="G652" s="42">
@@ -17667,55 +17683,55 @@
       </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C654" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="D654" s="39"/>
+        <v>598</v>
+      </c>
+      <c r="C654" s="13"/>
+      <c r="D654" s="39">
+        <v>0.11200000000000002</v>
+      </c>
       <c r="E654" s="9"/>
       <c r="F654" s="20"/>
-      <c r="G654" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H654" s="39">
-        <v>1</v>
-      </c>
+      <c r="G654" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H654" s="39"/>
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
-      <c r="K654" s="49">
-        <v>44995</v>
-      </c>
+      <c r="K654" s="49"/>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" s="40"/>
+      <c r="A655" s="40">
+        <v>44986</v>
+      </c>
       <c r="B655" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="C655" s="42"/>
+        <v>124</v>
+      </c>
+      <c r="C655" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D655" s="39"/>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
-      <c r="G655" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H655" s="39"/>
+      <c r="G655" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H655" s="39">
+        <v>1</v>
+      </c>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
       <c r="K655" s="49">
-        <v>45008</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20" t="s">
-        <v>124</v>
+        <v>574</v>
       </c>
       <c r="C656" s="42"/>
       <c r="D656" s="39"/>
@@ -17725,31 +17741,25 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H656" s="39">
-        <v>1</v>
-      </c>
+      <c r="H656" s="39"/>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
       <c r="K656" s="49">
-        <v>45009</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A657" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C657" s="42">
-        <v>1.25</v>
-      </c>
+      <c r="C657" s="42"/>
       <c r="D657" s="39"/>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G657" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H657" s="39">
         <v>1</v>
@@ -17757,291 +17767,287 @@
       <c r="I657" s="9"/>
       <c r="J657" s="11"/>
       <c r="K657" s="49">
-        <v>45028</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A658" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="C658" s="13">
-        <v>1.25</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C658" s="13"/>
       <c r="D658" s="39">
-        <v>2</v>
+        <v>1.673</v>
       </c>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
-      <c r="G658" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G658" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H658" s="39"/>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
-      <c r="K658" s="20" t="s">
-        <v>573</v>
-      </c>
+      <c r="K658" s="49"/>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A659" s="40"/>
+      <c r="A659" s="40">
+        <v>45017</v>
+      </c>
       <c r="B659" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="C659" s="13"/>
+        <v>124</v>
+      </c>
+      <c r="C659" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D659" s="39"/>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
-      <c r="G659" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H659" s="39"/>
+      <c r="G659" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H659" s="39">
+        <v>1</v>
+      </c>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
-      <c r="K659" s="49" t="s">
-        <v>575</v>
+      <c r="K659" s="49">
+        <v>45028</v>
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C660" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D660" s="39"/>
+        <v>583</v>
+      </c>
+      <c r="C660" s="13"/>
+      <c r="D660" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E660" s="9"/>
       <c r="F660" s="20"/>
-      <c r="G660" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H660" s="39">
-        <v>1</v>
-      </c>
+      <c r="G660" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H660" s="39"/>
       <c r="I660" s="9"/>
       <c r="J660" s="11"/>
-      <c r="K660" s="49">
-        <v>45093</v>
-      </c>
+      <c r="K660" s="49"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A661" s="40"/>
+      <c r="A661" s="40">
+        <v>45047</v>
+      </c>
       <c r="B661" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="C661" s="13"/>
+        <v>572</v>
+      </c>
+      <c r="C661" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D661" s="39">
-        <v>0.51700000000000002</v>
+        <v>2</v>
       </c>
       <c r="E661" s="9"/>
       <c r="F661" s="20"/>
-      <c r="G661" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G661" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H661" s="39"/>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
-      <c r="K661" s="49"/>
+      <c r="K661" s="20" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A662" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="C662" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C662" s="13"/>
       <c r="D662" s="39"/>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
-      <c r="G662" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G662" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H662" s="39"/>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
-      <c r="K662" s="49">
-        <v>45114</v>
+      <c r="K662" s="49" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
-        <v>124</v>
+        <v>596</v>
       </c>
       <c r="C663" s="13"/>
-      <c r="D663" s="39"/>
+      <c r="D663" s="39">
+        <v>0.621</v>
+      </c>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
       <c r="G663" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H663" s="39">
-        <v>1</v>
-      </c>
+      <c r="H663" s="39"/>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
-      <c r="K663" s="49">
-        <v>45127</v>
-      </c>
+      <c r="K663" s="49"/>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="40"/>
+      <c r="A664" s="40">
+        <v>45078</v>
+      </c>
       <c r="B664" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="C664" s="13"/>
-      <c r="D664" s="39">
-        <v>1.0249999999999999</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C664" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D664" s="39"/>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H664" s="39"/>
+      <c r="G664" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H664" s="39">
+        <v>1</v>
+      </c>
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
-      <c r="K664" s="49"/>
+      <c r="K664" s="49">
+        <v>45093</v>
+      </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A665" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A665" s="40"/>
       <c r="B665" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="C665" s="13">
-        <v>1.25</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="C665" s="13"/>
       <c r="D665" s="39">
-        <v>2</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
-      <c r="G665" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G665" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H665" s="39"/>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
-      <c r="K665" s="20" t="s">
-        <v>581</v>
-      </c>
+      <c r="K665" s="49"/>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="40"/>
+      <c r="A666" s="40">
+        <v>45108</v>
+      </c>
       <c r="B666" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="C666" s="13"/>
-      <c r="D666" s="39">
-        <v>1</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="C666" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D666" s="39"/>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G666" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H666" s="39"/>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
       <c r="K666" s="49">
-        <v>45149</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
-        <v>593</v>
+        <v>124</v>
       </c>
       <c r="C667" s="13"/>
-      <c r="D667" s="39">
-        <v>1.002</v>
-      </c>
+      <c r="D667" s="39"/>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
       <c r="G667" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H667" s="39"/>
+      <c r="H667" s="39">
+        <v>1</v>
+      </c>
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
-      <c r="K667" s="49"/>
+      <c r="K667" s="49">
+        <v>45127</v>
+      </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C668" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D668" s="39"/>
+        <v>594</v>
+      </c>
+      <c r="C668" s="13"/>
+      <c r="D668" s="39">
+        <v>1.0249999999999999</v>
+      </c>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H668" s="39">
-        <v>1</v>
-      </c>
+      <c r="G668" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H668" s="39"/>
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
-      <c r="K668" s="49">
-        <v>45188</v>
-      </c>
+      <c r="K668" s="49"/>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A669" s="40"/>
+      <c r="A669" s="40">
+        <v>45139</v>
+      </c>
       <c r="B669" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C669" s="13"/>
-      <c r="D669" s="39"/>
+        <v>572</v>
+      </c>
+      <c r="C669" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D669" s="39">
+        <v>2</v>
+      </c>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H669" s="39">
-        <v>2</v>
-      </c>
+      <c r="G669" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H669" s="39"/>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="49" t="s">
-        <v>585</v>
+      <c r="K669" s="20" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C670" s="13"/>
       <c r="D670" s="39">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
@@ -18052,60 +18058,60 @@
       <c r="H670" s="39"/>
       <c r="I670" s="9"/>
       <c r="J670" s="11"/>
-      <c r="K670" s="49"/>
+      <c r="K670" s="49">
+        <v>45149</v>
+      </c>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A671" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A671" s="40"/>
       <c r="B671" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C671" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D671" s="39"/>
+        <v>593</v>
+      </c>
+      <c r="C671" s="13"/>
+      <c r="D671" s="39">
+        <v>1.002</v>
+      </c>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
-      <c r="G671" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H671" s="39">
-        <v>1</v>
-      </c>
+      <c r="G671" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H671" s="39"/>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
-      <c r="K671" s="49">
-        <v>45209</v>
-      </c>
+      <c r="K671" s="49"/>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A672" s="40"/>
+      <c r="A672" s="40">
+        <v>45170</v>
+      </c>
       <c r="B672" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="C672" s="13"/>
-      <c r="D672" s="39">
-        <v>2</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C672" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D672" s="39"/>
       <c r="E672" s="9"/>
       <c r="F672" s="20"/>
-      <c r="G672" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H672" s="39"/>
+      <c r="G672" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H672" s="39">
+        <v>1</v>
+      </c>
       <c r="I672" s="9"/>
       <c r="J672" s="11"/>
-      <c r="K672" s="49" t="s">
-        <v>586</v>
+      <c r="K672" s="49">
+        <v>45188</v>
       </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C673" s="13"/>
       <c r="D673" s="39"/>
@@ -18116,22 +18122,22 @@
         <v/>
       </c>
       <c r="H673" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I673" s="9"/>
       <c r="J673" s="11"/>
-      <c r="K673" s="49">
-        <v>45224</v>
+      <c r="K673" s="49" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="C674" s="13"/>
       <c r="D674" s="39">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E674" s="9"/>
       <c r="F674" s="20"/>
@@ -18142,110 +18148,108 @@
       <c r="H674" s="39"/>
       <c r="I674" s="9"/>
       <c r="J674" s="11"/>
-      <c r="K674" s="49">
-        <v>45230</v>
-      </c>
+      <c r="K674" s="49"/>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" s="40"/>
+      <c r="A675" s="40">
+        <v>45200</v>
+      </c>
       <c r="B675" s="20" t="s">
-        <v>591</v>
-      </c>
-      <c r="C675" s="13"/>
-      <c r="D675" s="39">
-        <v>0.504</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C675" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D675" s="39"/>
       <c r="E675" s="9"/>
       <c r="F675" s="20"/>
-      <c r="G675" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H675" s="39"/>
+      <c r="G675" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H675" s="39">
+        <v>1</v>
+      </c>
       <c r="I675" s="9"/>
       <c r="J675" s="11"/>
-      <c r="K675" s="49"/>
+      <c r="K675" s="49">
+        <v>45209</v>
+      </c>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C676" s="13">
-        <v>1.25</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="C676" s="13"/>
       <c r="D676" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E676" s="9"/>
       <c r="F676" s="20"/>
-      <c r="G676" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G676" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H676" s="39"/>
       <c r="I676" s="9"/>
       <c r="J676" s="11"/>
-      <c r="K676" s="20" t="s">
-        <v>587</v>
+      <c r="K676" s="49" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
-        <v>590</v>
+        <v>124</v>
       </c>
       <c r="C677" s="13"/>
-      <c r="D677" s="39">
-        <v>1.1619999999999999</v>
-      </c>
+      <c r="D677" s="39"/>
       <c r="E677" s="9"/>
       <c r="F677" s="20"/>
       <c r="G677" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H677" s="39"/>
+      <c r="H677" s="39">
+        <v>1</v>
+      </c>
       <c r="I677" s="9"/>
       <c r="J677" s="11"/>
-      <c r="K677" s="20"/>
+      <c r="K677" s="49">
+        <v>45224</v>
+      </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A678" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="C678" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C678" s="13"/>
       <c r="D678" s="39">
         <v>1</v>
       </c>
       <c r="E678" s="9"/>
       <c r="F678" s="20"/>
-      <c r="G678" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G678" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H678" s="39"/>
       <c r="I678" s="9"/>
       <c r="J678" s="11"/>
       <c r="K678" s="49">
-        <v>45267</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C679" s="13"/>
       <c r="D679" s="39">
-        <v>1.423</v>
+        <v>0.504</v>
       </c>
       <c r="E679" s="9"/>
       <c r="F679" s="20"/>
@@ -18259,72 +18263,86 @@
       <c r="K679" s="49"/>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A680" s="48" t="s">
-        <v>588</v>
-      </c>
-      <c r="B680" s="20"/>
-      <c r="C680" s="13"/>
-      <c r="D680" s="39"/>
+      <c r="A680" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B680" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C680" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D680" s="39">
+        <v>3</v>
+      </c>
       <c r="E680" s="9"/>
       <c r="F680" s="20"/>
-      <c r="G680" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G680" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H680" s="39"/>
       <c r="I680" s="9"/>
       <c r="J680" s="11"/>
-      <c r="K680" s="20"/>
+      <c r="K680" s="20" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A681" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A681" s="40"/>
       <c r="B681" s="20" t="s">
-        <v>124</v>
+        <v>590</v>
       </c>
       <c r="C681" s="13"/>
-      <c r="D681" s="39"/>
+      <c r="D681" s="39">
+        <v>1.1619999999999999</v>
+      </c>
       <c r="E681" s="9"/>
       <c r="F681" s="20"/>
       <c r="G681" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H681" s="39">
-        <v>1</v>
-      </c>
+      <c r="H681" s="39"/>
       <c r="I681" s="9"/>
       <c r="J681" s="11"/>
-      <c r="K681" s="49">
-        <v>45300</v>
-      </c>
+      <c r="K681" s="20"/>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B682" s="20"/>
-      <c r="C682" s="13"/>
-      <c r="D682" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B682" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="C682" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D682" s="39">
+        <v>1</v>
+      </c>
       <c r="E682" s="9"/>
       <c r="F682" s="20"/>
-      <c r="G682" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G682" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H682" s="39"/>
       <c r="I682" s="9"/>
       <c r="J682" s="11"/>
-      <c r="K682" s="20"/>
+      <c r="K682" s="49">
+        <v>45267</v>
+      </c>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A683" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B683" s="20"/>
+      <c r="A683" s="40"/>
+      <c r="B683" s="20" t="s">
+        <v>589</v>
+      </c>
       <c r="C683" s="13"/>
-      <c r="D683" s="39"/>
+      <c r="D683" s="39">
+        <v>1.423</v>
+      </c>
       <c r="E683" s="9"/>
       <c r="F683" s="20"/>
       <c r="G683" s="13" t="str">
@@ -18334,11 +18352,11 @@
       <c r="H683" s="39"/>
       <c r="I683" s="9"/>
       <c r="J683" s="11"/>
-      <c r="K683" s="20"/>
+      <c r="K683" s="49"/>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A684" s="40">
-        <v>45383</v>
+      <c r="A684" s="48" t="s">
+        <v>588</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18356,9 +18374,11 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B685" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B685" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C685" s="13"/>
       <c r="D685" s="39"/>
       <c r="E685" s="9"/>
@@ -18367,14 +18387,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H685" s="39"/>
+      <c r="H685" s="39">
+        <v>1</v>
+      </c>
       <c r="I685" s="9"/>
       <c r="J685" s="11"/>
-      <c r="K685" s="20"/>
+      <c r="K685" s="49">
+        <v>45300</v>
+      </c>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18392,7 +18416,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18410,7 +18434,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18428,7 +18452,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18446,7 +18470,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18464,7 +18488,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18482,7 +18506,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18500,7 +18524,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18518,7 +18542,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18536,7 +18560,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18554,7 +18578,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18572,7 +18596,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18590,7 +18614,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18608,7 +18632,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18626,7 +18650,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18644,7 +18668,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18662,7 +18686,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18680,7 +18704,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18698,7 +18722,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18716,7 +18740,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18734,7 +18758,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18752,7 +18776,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18770,7 +18794,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18788,7 +18812,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>46143</v>
+        <v>46023</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18806,7 +18830,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>46174</v>
+        <v>46054</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18824,7 +18848,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>46204</v>
+        <v>46082</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18842,7 +18866,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>46235</v>
+        <v>46113</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18860,7 +18884,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>46266</v>
+        <v>46143</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18878,7 +18902,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>46296</v>
+        <v>46174</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18896,7 +18920,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>46327</v>
+        <v>46204</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18914,7 +18938,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>46357</v>
+        <v>46235</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18932,7 +18956,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>46388</v>
+        <v>46266</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18950,7 +18974,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>46419</v>
+        <v>46296</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18968,7 +18992,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>46447</v>
+        <v>46327</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18986,7 +19010,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>46478</v>
+        <v>46357</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19004,7 +19028,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>46508</v>
+        <v>46388</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19022,7 +19046,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>46539</v>
+        <v>46419</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19040,7 +19064,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>46569</v>
+        <v>46447</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19058,7 +19082,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>46600</v>
+        <v>46478</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19076,7 +19100,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>46631</v>
+        <v>46508</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19094,7 +19118,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>46661</v>
+        <v>46539</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19112,7 +19136,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>46692</v>
+        <v>46569</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19130,7 +19154,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>46722</v>
+        <v>46600</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19148,7 +19172,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>46753</v>
+        <v>46631</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19166,7 +19190,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>46784</v>
+        <v>46661</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19184,7 +19208,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>46813</v>
+        <v>46692</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19202,7 +19226,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>46844</v>
+        <v>46722</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19220,7 +19244,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>46874</v>
+        <v>46753</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19238,7 +19262,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>46905</v>
+        <v>46784</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19256,7 +19280,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>46935</v>
+        <v>46813</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19274,7 +19298,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>46966</v>
+        <v>46844</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19292,7 +19316,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>46997</v>
+        <v>46874</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19310,7 +19334,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>47027</v>
+        <v>46905</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19328,7 +19352,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>47058</v>
+        <v>46935</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19346,7 +19370,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>47088</v>
+        <v>46966</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19364,7 +19388,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>47119</v>
+        <v>46997</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19382,7 +19406,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>47150</v>
+        <v>47027</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19400,7 +19424,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>47178</v>
+        <v>47058</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19418,7 +19442,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>47209</v>
+        <v>47088</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19436,7 +19460,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>47239</v>
+        <v>47119</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19454,7 +19478,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>47270</v>
+        <v>47150</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19472,7 +19496,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>47300</v>
+        <v>47178</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19490,7 +19514,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>47331</v>
+        <v>47209</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19508,7 +19532,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>47362</v>
+        <v>47239</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19526,7 +19550,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>47392</v>
+        <v>47270</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19544,7 +19568,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>47423</v>
+        <v>47300</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19562,7 +19586,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>47453</v>
+        <v>47331</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19580,7 +19604,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>47484</v>
+        <v>47362</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19598,7 +19622,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>47515</v>
+        <v>47392</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19616,7 +19640,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>47543</v>
+        <v>47423</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19634,7 +19658,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>47574</v>
+        <v>47453</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19652,7 +19676,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>47604</v>
+        <v>47484</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19670,7 +19694,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>47635</v>
+        <v>47515</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19688,7 +19712,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>47665</v>
+        <v>47543</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19706,7 +19730,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>47696</v>
+        <v>47574</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19724,7 +19748,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>47727</v>
+        <v>47604</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19742,7 +19766,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>47757</v>
+        <v>47635</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19760,7 +19784,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>47788</v>
+        <v>47665</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19778,7 +19802,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>47818</v>
+        <v>47696</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19796,7 +19820,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>47849</v>
+        <v>47727</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19814,7 +19838,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>47880</v>
+        <v>47757</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19832,7 +19856,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>47908</v>
+        <v>47788</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19850,7 +19874,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>47939</v>
+        <v>47818</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19868,7 +19892,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>47969</v>
+        <v>47849</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19886,7 +19910,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>48000</v>
+        <v>47880</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19904,7 +19928,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>48030</v>
+        <v>47908</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19922,7 +19946,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>48061</v>
+        <v>47939</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19940,7 +19964,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>48092</v>
+        <v>47969</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19958,7 +19982,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>48122</v>
+        <v>48000</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19976,7 +20000,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>48153</v>
+        <v>48030</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19994,7 +20018,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>48183</v>
+        <v>48061</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -20012,7 +20036,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>48214</v>
+        <v>48092</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -20030,7 +20054,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>48245</v>
+        <v>48122</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -20048,7 +20072,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>48274</v>
+        <v>48153</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -20066,7 +20090,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>48305</v>
+        <v>48183</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -20084,7 +20108,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>48335</v>
+        <v>48214</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -20102,7 +20126,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>48366</v>
+        <v>48245</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -20120,7 +20144,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>48396</v>
+        <v>48274</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -20138,7 +20162,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>48427</v>
+        <v>48305</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -20156,7 +20180,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>48458</v>
+        <v>48335</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -20174,7 +20198,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>48488</v>
+        <v>48366</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -20192,7 +20216,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>48519</v>
+        <v>48396</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -20210,7 +20234,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>48549</v>
+        <v>48427</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -20228,7 +20252,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>48580</v>
+        <v>48458</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -20246,7 +20270,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>48611</v>
+        <v>48488</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -20264,7 +20288,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>48639</v>
+        <v>48519</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -20282,7 +20306,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>48670</v>
+        <v>48549</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -20300,7 +20324,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>48700</v>
+        <v>48580</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -20318,7 +20342,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>48731</v>
+        <v>48611</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -20336,7 +20360,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>48761</v>
+        <v>48639</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -20354,7 +20378,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>48792</v>
+        <v>48670</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -20372,7 +20396,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>48823</v>
+        <v>48700</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -20390,7 +20414,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>48853</v>
+        <v>48731</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -20408,7 +20432,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
-        <v>48884</v>
+        <v>48761</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -20426,7 +20450,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
-        <v>48914</v>
+        <v>48792</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -20444,7 +20468,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
-        <v>48945</v>
+        <v>48823</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20462,7 +20486,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
-        <v>48976</v>
+        <v>48853</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20480,7 +20504,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
-        <v>49004</v>
+        <v>48884</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20498,7 +20522,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
-        <v>49035</v>
+        <v>48914</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20516,7 +20540,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
-        <v>49065</v>
+        <v>48945</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20534,7 +20558,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
-        <v>49096</v>
+        <v>48976</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20552,7 +20576,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
-        <v>49126</v>
+        <v>49004</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20570,7 +20594,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
-        <v>49157</v>
+        <v>49035</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20588,7 +20612,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
-        <v>49188</v>
+        <v>49065</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20606,7 +20630,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
-        <v>49218</v>
+        <v>49096</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20624,7 +20648,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
-        <v>49249</v>
+        <v>49126</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20642,7 +20666,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
-        <v>49279</v>
+        <v>49157</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20660,7 +20684,7 @@
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40">
-        <v>49310</v>
+        <v>49188</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20678,7 +20702,7 @@
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40">
-        <v>49341</v>
+        <v>49218</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20696,7 +20720,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40">
-        <v>49369</v>
+        <v>49249</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20714,7 +20738,7 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40">
-        <v>49400</v>
+        <v>49279</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20732,7 +20756,7 @@
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40">
-        <v>49430</v>
+        <v>49310</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20750,7 +20774,7 @@
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40">
-        <v>49461</v>
+        <v>49341</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -20768,7 +20792,7 @@
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40">
-        <v>49491</v>
+        <v>49369</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -20786,7 +20810,7 @@
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="40">
-        <v>49522</v>
+        <v>49400</v>
       </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -20804,7 +20828,7 @@
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="40">
-        <v>49553</v>
+        <v>49430</v>
       </c>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
@@ -20822,7 +20846,7 @@
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="40">
-        <v>49583</v>
+        <v>49461</v>
       </c>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
@@ -20840,7 +20864,7 @@
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="40">
-        <v>49614</v>
+        <v>49491</v>
       </c>
       <c r="B823" s="20"/>
       <c r="C823" s="13"/>
@@ -20858,7 +20882,7 @@
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="40">
-        <v>49644</v>
+        <v>49522</v>
       </c>
       <c r="B824" s="20"/>
       <c r="C824" s="13"/>
@@ -20876,7 +20900,7 @@
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="40">
-        <v>49675</v>
+        <v>49553</v>
       </c>
       <c r="B825" s="20"/>
       <c r="C825" s="13"/>
@@ -20894,7 +20918,7 @@
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="40">
-        <v>49706</v>
+        <v>49583</v>
       </c>
       <c r="B826" s="20"/>
       <c r="C826" s="13"/>
@@ -20912,7 +20936,7 @@
     </row>
     <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="40">
-        <v>49735</v>
+        <v>49614</v>
       </c>
       <c r="B827" s="20"/>
       <c r="C827" s="13"/>
@@ -20930,7 +20954,7 @@
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="40">
-        <v>49766</v>
+        <v>49644</v>
       </c>
       <c r="B828" s="20"/>
       <c r="C828" s="13"/>
@@ -20948,7 +20972,7 @@
     </row>
     <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="40">
-        <v>49796</v>
+        <v>49675</v>
       </c>
       <c r="B829" s="20"/>
       <c r="C829" s="13"/>
@@ -20966,7 +20990,7 @@
     </row>
     <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="40">
-        <v>49827</v>
+        <v>49706</v>
       </c>
       <c r="B830" s="20"/>
       <c r="C830" s="13"/>
@@ -20984,7 +21008,7 @@
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="40">
-        <v>49857</v>
+        <v>49735</v>
       </c>
       <c r="B831" s="20"/>
       <c r="C831" s="13"/>
@@ -21002,7 +21026,7 @@
     </row>
     <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="40">
-        <v>49888</v>
+        <v>49766</v>
       </c>
       <c r="B832" s="20"/>
       <c r="C832" s="13"/>
@@ -21020,7 +21044,7 @@
     </row>
     <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="40">
-        <v>49919</v>
+        <v>49796</v>
       </c>
       <c r="B833" s="20"/>
       <c r="C833" s="13"/>
@@ -21038,7 +21062,7 @@
     </row>
     <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" s="40">
-        <v>49949</v>
+        <v>49827</v>
       </c>
       <c r="B834" s="20"/>
       <c r="C834" s="13"/>
@@ -21056,7 +21080,7 @@
     </row>
     <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" s="40">
-        <v>49980</v>
+        <v>49857</v>
       </c>
       <c r="B835" s="20"/>
       <c r="C835" s="13"/>
@@ -21073,7 +21097,9 @@
       <c r="K835" s="20"/>
     </row>
     <row r="836" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A836" s="40"/>
+      <c r="A836" s="40">
+        <v>49888</v>
+      </c>
       <c r="B836" s="20"/>
       <c r="C836" s="13"/>
       <c r="D836" s="39"/>
@@ -21089,7 +21115,9 @@
       <c r="K836" s="20"/>
     </row>
     <row r="837" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A837" s="40"/>
+      <c r="A837" s="40">
+        <v>49919</v>
+      </c>
       <c r="B837" s="20"/>
       <c r="C837" s="13"/>
       <c r="D837" s="39"/>
@@ -21105,7 +21133,9 @@
       <c r="K837" s="20"/>
     </row>
     <row r="838" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A838" s="40"/>
+      <c r="A838" s="40">
+        <v>49949</v>
+      </c>
       <c r="B838" s="20"/>
       <c r="C838" s="13"/>
       <c r="D838" s="39"/>
@@ -21121,7 +21151,9 @@
       <c r="K838" s="20"/>
     </row>
     <row r="839" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A839" s="40"/>
+      <c r="A839" s="40">
+        <v>49980</v>
+      </c>
       <c r="B839" s="20"/>
       <c r="C839" s="13"/>
       <c r="D839" s="39"/>
@@ -21153,20 +21185,84 @@
       <c r="K840" s="20"/>
     </row>
     <row r="841" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A841" s="41"/>
-      <c r="B841" s="15"/>
-      <c r="C841" s="42"/>
-      <c r="D841" s="43"/>
+      <c r="A841" s="40"/>
+      <c r="B841" s="20"/>
+      <c r="C841" s="13"/>
+      <c r="D841" s="39"/>
       <c r="E841" s="9"/>
-      <c r="F841" s="15"/>
-      <c r="G841" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H841" s="43"/>
+      <c r="F841" s="20"/>
+      <c r="G841" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H841" s="39"/>
       <c r="I841" s="9"/>
-      <c r="J841" s="12"/>
-      <c r="K841" s="15"/>
+      <c r="J841" s="11"/>
+      <c r="K841" s="20"/>
+    </row>
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A842" s="40"/>
+      <c r="B842" s="20"/>
+      <c r="C842" s="13"/>
+      <c r="D842" s="39"/>
+      <c r="E842" s="9"/>
+      <c r="F842" s="20"/>
+      <c r="G842" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H842" s="39"/>
+      <c r="I842" s="9"/>
+      <c r="J842" s="11"/>
+      <c r="K842" s="20"/>
+    </row>
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A843" s="40"/>
+      <c r="B843" s="20"/>
+      <c r="C843" s="13"/>
+      <c r="D843" s="39"/>
+      <c r="E843" s="9"/>
+      <c r="F843" s="20"/>
+      <c r="G843" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H843" s="39"/>
+      <c r="I843" s="9"/>
+      <c r="J843" s="11"/>
+      <c r="K843" s="20"/>
+    </row>
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A844" s="40"/>
+      <c r="B844" s="20"/>
+      <c r="C844" s="13"/>
+      <c r="D844" s="39"/>
+      <c r="E844" s="9"/>
+      <c r="F844" s="20"/>
+      <c r="G844" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H844" s="39"/>
+      <c r="I844" s="9"/>
+      <c r="J844" s="11"/>
+      <c r="K844" s="20"/>
+    </row>
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A845" s="41"/>
+      <c r="B845" s="15"/>
+      <c r="C845" s="42"/>
+      <c r="D845" s="43"/>
+      <c r="E845" s="9"/>
+      <c r="F845" s="15"/>
+      <c r="G845" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H845" s="43"/>
+      <c r="I845" s="9"/>
+      <c r="J845" s="12"/>
+      <c r="K845" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -21276,15 +21372,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>4</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.51700000000000002</v>
+        <v>3.1000000000000014E-2</v>
       </c>
       <c r="J3" s="47">
         <v>36321</v>

--- a/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA775659-5B97-43CB-A4A8-AC12377B6421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="600">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2018,7 +2019,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2699,7 +2700,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2716,25 +2717,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K845" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K846" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3041,33 +3042,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L845"/>
+  <dimension ref="A2:L846"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A649" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F658" sqref="F658"/>
+      <pane ySplit="4428" topLeftCell="A683" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E687" sqref="E687"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3090,7 +3091,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3112,7 +3113,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3134,7 +3135,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3142,7 +3143,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3155,7 +3156,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3172,7 +3173,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3216,7 +3217,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.947000000000003</v>
+        <v>49.197000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3226,12 +3227,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47.791999999999973</v>
+        <v>49.041999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>48</v>
       </c>
@@ -3253,7 +3254,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36434</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>50</v>
@@ -3297,7 +3298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>51</v>
@@ -3319,7 +3320,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36465</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>36291</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>49</v>
@@ -3365,7 +3366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>53</v>
@@ -3387,7 +3388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -3411,7 +3412,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>54</v>
@@ -3431,7 +3432,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36495</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>36353</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>60</v>
@@ -3477,7 +3478,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -3501,7 +3502,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>61</v>
@@ -3523,7 +3524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>62</v>
@@ -3543,7 +3544,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>66</v>
       </c>
@@ -3561,7 +3562,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36526</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>68</v>
@@ -3609,7 +3610,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36557</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36586</v>
       </c>
@@ -3655,7 +3656,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36617</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -3703,7 +3704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>75</v>
@@ -3721,7 +3722,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36647</v>
       </c>
@@ -3745,7 +3746,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>49</v>
@@ -3765,7 +3766,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>76</v>
@@ -3787,7 +3788,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36678</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>60</v>
@@ -3833,7 +3834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>79</v>
@@ -3855,7 +3856,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36708</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>36745</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>82</v>
@@ -3901,7 +3902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>49</v>
@@ -3923,7 +3924,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>83</v>
@@ -3945,7 +3946,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36739</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>36533</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>49</v>
@@ -3991,7 +3992,7 @@
         <v>36593</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>86</v>
@@ -4013,7 +4014,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>87</v>
@@ -4035,7 +4036,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36770</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>36869</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>49</v>
@@ -4081,7 +4082,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>82</v>
@@ -4103,7 +4104,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>90</v>
@@ -4127,7 +4128,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36800</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>91</v>
@@ -4173,7 +4174,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>60</v>
@@ -4193,7 +4194,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>92</v>
@@ -4215,7 +4216,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36831</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>60</v>
@@ -4261,7 +4262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>92</v>
@@ -4283,7 +4284,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>36861</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>36872</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>60</v>
@@ -4325,7 +4326,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>60</v>
@@ -4345,7 +4346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>51</v>
@@ -4367,7 +4368,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>101</v>
       </c>
@@ -4385,7 +4386,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36892</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>102</v>
@@ -4433,7 +4434,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>36923</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>104</v>
@@ -4479,7 +4480,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>105</v>
@@ -4501,7 +4502,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>36951</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>37137</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>36982</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>49</v>
@@ -4573,7 +4574,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>110</v>
@@ -4597,7 +4598,7 @@
         <v>37016</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>113</v>
@@ -4619,7 +4620,7 @@
         <v>36927</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37012</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>91</v>
@@ -4667,7 +4668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>82</v>
@@ -4687,7 +4688,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>115</v>
@@ -4709,7 +4710,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37043</v>
       </c>
@@ -4733,7 +4734,7 @@
         <v>37109</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>49</v>
@@ -4755,7 +4756,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>119</v>
@@ -4779,7 +4780,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>119</v>
@@ -4801,7 +4802,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>120</v>
@@ -4823,7 +4824,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37073</v>
       </c>
@@ -4845,7 +4846,7 @@
         <v>40581</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>119</v>
@@ -4867,7 +4868,7 @@
         <v>37232</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>125</v>
@@ -4889,7 +4890,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>119</v>
@@ -4911,7 +4912,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>126</v>
@@ -4933,7 +4934,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37104</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37135</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>130</v>
@@ -5005,7 +5006,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>104</v>
@@ -5027,7 +5028,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>131</v>
@@ -5049,7 +5050,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>136</v>
@@ -5073,7 +5074,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>37165</v>
       </c>
@@ -5093,7 +5094,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>138</v>
@@ -5117,7 +5118,7 @@
         <v>36901</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>131</v>
@@ -5139,7 +5140,7 @@
         <v>36960</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>91</v>
@@ -5161,7 +5162,7 @@
         <v>37235</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>139</v>
@@ -5185,7 +5186,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37196</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>141</v>
@@ -5230,7 +5231,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>119</v>
@@ -5252,7 +5253,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>90</v>
@@ -5274,7 +5275,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37226</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>37084</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>145</v>
@@ -5322,7 +5323,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
         <v>146</v>
       </c>
@@ -5340,7 +5341,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>37257</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>147</v>
@@ -5388,7 +5389,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>37288</v>
       </c>
@@ -5412,7 +5413,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37316</v>
       </c>
@@ -5438,7 +5439,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37347</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -5484,7 +5485,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>152</v>
@@ -5504,7 +5505,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37377</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>82</v>
@@ -5548,7 +5549,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>49</v>
@@ -5570,7 +5571,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>156</v>
@@ -5594,7 +5595,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>157</v>
@@ -5616,7 +5617,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37408</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>49</v>
@@ -5664,7 +5665,7 @@
         <v>37321</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>37438</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37469</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>119</v>
@@ -5740,7 +5741,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>165</v>
@@ -5760,7 +5761,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>37500</v>
       </c>
@@ -5786,7 +5787,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>37530</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>49</v>
@@ -5834,7 +5835,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37561</v>
       </c>
@@ -5858,7 +5859,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>173</v>
@@ -5880,7 +5881,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>37591</v>
       </c>
@@ -5900,7 +5901,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
         <v>174</v>
       </c>
@@ -5918,7 +5919,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37622</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15" t="s">
         <v>175</v>
@@ -5964,7 +5965,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>176</v>
@@ -5986,7 +5987,7 @@
         <v>37682</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>37288</v>
       </c>
@@ -6012,7 +6013,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>37681</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>37712</v>
       </c>
@@ -6062,7 +6063,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>37742</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>49</v>
@@ -6108,7 +6109,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>167</v>
@@ -6130,7 +6131,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>37773</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>37803</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>37809</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>37834</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>49</v>
@@ -6226,7 +6227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>49</v>
@@ -6248,7 +6249,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>187</v>
@@ -6270,7 +6271,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>37865</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>190</v>
@@ -6314,7 +6315,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>49</v>
@@ -6336,7 +6337,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>186</v>
@@ -6360,7 +6361,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>37895</v>
       </c>
@@ -6382,7 +6383,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>49</v>
@@ -6404,7 +6405,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>49</v>
@@ -6426,7 +6427,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>195</v>
@@ -6448,7 +6449,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>37926</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>37966</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>199</v>
@@ -6496,7 +6497,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>37956</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>37664</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="15" t="s">
         <v>49</v>
@@ -6544,7 +6545,7 @@
         <v>37845</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>201</v>
@@ -6566,7 +6567,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>202</v>
@@ -6590,7 +6591,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23" t="s">
         <v>205</v>
       </c>
@@ -6608,7 +6609,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>37987</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>38019</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>206</v>
@@ -6656,7 +6657,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>38018</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>49</v>
@@ -6700,7 +6701,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>209</v>
@@ -6722,7 +6723,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>38047</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>38049</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>211</v>
@@ -6766,7 +6767,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>212</v>
@@ -6790,7 +6791,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>38078</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>96</v>
@@ -6836,7 +6837,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>215</v>
@@ -6860,7 +6861,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>38108</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>38296</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>49</v>
@@ -6906,7 +6907,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>219</v>
@@ -6928,7 +6929,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>38139</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>38144</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41"/>
       <c r="B174" s="15" t="s">
         <v>49</v>
@@ -6974,7 +6975,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>119</v>
@@ -6998,7 +6999,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>221</v>
@@ -7020,7 +7021,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>38169</v>
       </c>
@@ -7042,7 +7043,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>125</v>
@@ -7066,7 +7067,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>119</v>
@@ -7088,7 +7089,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>224</v>
@@ -7112,7 +7113,7 @@
         <v>38025</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>38200</v>
       </c>
@@ -7136,7 +7137,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>38231</v>
       </c>
@@ -7162,7 +7163,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>228</v>
@@ -7184,7 +7185,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>38261</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>227</v>
@@ -7230,7 +7231,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>49</v>
@@ -7252,7 +7253,7 @@
         <v>38117</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>38292</v>
       </c>
@@ -7274,7 +7275,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>232</v>
@@ -7300,7 +7301,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="41">
         <v>38322</v>
       </c>
@@ -7324,7 +7325,7 @@
       <c r="J189" s="12"/>
       <c r="K189" s="15"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23" t="s">
         <v>235</v>
       </c>
@@ -7342,7 +7343,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>38353</v>
       </c>
@@ -7362,7 +7363,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>49</v>
@@ -7384,7 +7385,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>237</v>
@@ -7408,7 +7409,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>38384</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>38535</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>240</v>
@@ -7452,7 +7453,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>241</v>
@@ -7474,7 +7475,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>38412</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>38445</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>145</v>
@@ -7522,7 +7523,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>38443</v>
       </c>
@@ -7546,7 +7547,7 @@
         <v>38568</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>49</v>
@@ -7568,7 +7569,7 @@
         <v>38476</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>244</v>
@@ -7590,7 +7591,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>38473</v>
       </c>
@@ -7614,7 +7615,7 @@
         <v>38448</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>245</v>
@@ -7638,7 +7639,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="41">
         <v>38504</v>
       </c>
@@ -7662,7 +7663,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>247</v>
@@ -7684,7 +7685,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>38534</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>49</v>
@@ -7730,7 +7731,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>251</v>
@@ -7752,7 +7753,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>38565</v>
       </c>
@@ -7776,7 +7777,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>38596</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>38481</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>246</v>
@@ -7822,7 +7823,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>252</v>
@@ -7844,7 +7845,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>38626</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>49</v>
@@ -7892,7 +7893,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="41"/>
       <c r="B215" s="15" t="s">
         <v>254</v>
@@ -7914,7 +7915,7 @@
       <c r="J215" s="12"/>
       <c r="K215" s="15"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>38657</v>
       </c>
@@ -7940,7 +7941,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>156</v>
@@ -7964,7 +7965,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>38687</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23" t="s">
         <v>260</v>
       </c>
@@ -8004,7 +8005,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>38718</v>
       </c>
@@ -8028,7 +8029,7 @@
         <v>39022</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>49</v>
@@ -8050,7 +8051,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>246</v>
@@ -8072,7 +8073,7 @@
         <v>38750</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>261</v>
@@ -8094,7 +8095,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>38749</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>49</v>
@@ -8142,7 +8143,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>264</v>
@@ -8164,7 +8165,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="41">
         <v>38777</v>
       </c>
@@ -8188,7 +8189,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>236</v>
@@ -8208,7 +8209,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>119</v>
@@ -8232,7 +8233,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>236</v>
@@ -8252,7 +8253,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>268</v>
@@ -8274,7 +8275,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="15"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>38808</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>269</v>
@@ -8320,7 +8321,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="15"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>38838</v>
       </c>
@@ -8344,7 +8345,7 @@
         <v>38781</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>49</v>
@@ -8366,7 +8367,7 @@
         <v>39026</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>119</v>
@@ -8390,7 +8391,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>271</v>
@@ -8412,7 +8413,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="15"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>38869</v>
       </c>
@@ -8434,7 +8435,7 @@
         <v>38935</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>49</v>
@@ -8456,7 +8457,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>119</v>
@@ -8478,7 +8479,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>119</v>
@@ -8500,7 +8501,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>273</v>
@@ -8522,7 +8523,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="15"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>38899</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>276</v>
@@ -8568,7 +8569,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="15"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>38930</v>
       </c>
@@ -8592,7 +8593,7 @@
         <v>38937</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>49</v>
@@ -8614,7 +8615,7 @@
         <v>39059</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>278</v>
@@ -8636,7 +8637,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="15"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>38961</v>
       </c>
@@ -8660,7 +8661,7 @@
         <v>38816</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>119</v>
@@ -8684,7 +8685,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>279</v>
@@ -8706,7 +8707,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="15"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>38991</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>281</v>
@@ -8752,7 +8753,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>282</v>
@@ -8774,7 +8775,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="15"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>39022</v>
       </c>
@@ -8798,7 +8799,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>246</v>
@@ -8820,7 +8821,7 @@
         <v>38819</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>125</v>
@@ -8844,7 +8845,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>285</v>
@@ -8866,7 +8867,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="15"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>39052</v>
       </c>
@@ -8890,7 +8891,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23" t="s">
         <v>289</v>
       </c>
@@ -8908,7 +8909,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>39083</v>
       </c>
@@ -8932,7 +8933,7 @@
         <v>39203</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>290</v>
@@ -8952,7 +8953,7 @@
         <v>39417</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>175</v>
@@ -8974,7 +8975,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>291</v>
@@ -8996,7 +8997,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39114</v>
       </c>
@@ -9014,7 +9015,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>49</v>
@@ -9036,7 +9037,7 @@
         <v>39084</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>293</v>
@@ -9058,7 +9059,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>39142</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>39328</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>290</v>
@@ -9102,7 +9103,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>49</v>
@@ -9124,7 +9125,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="15" t="s">
         <v>294</v>
@@ -9146,7 +9147,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="41">
         <v>39173</v>
       </c>
@@ -9170,7 +9171,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>297</v>
@@ -9192,7 +9193,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>39203</v>
       </c>
@@ -9216,7 +9217,7 @@
         <v>39268</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>299</v>
@@ -9240,7 +9241,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>246</v>
@@ -9262,7 +9263,7 @@
         <v>39178</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>299</v>
@@ -9284,7 +9285,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>300</v>
@@ -9306,7 +9307,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>39234</v>
       </c>
@@ -9332,7 +9333,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="49"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>39264</v>
       </c>
@@ -9356,7 +9357,7 @@
         <v>39362</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>49</v>
@@ -9378,7 +9379,7 @@
         <v>39362</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>304</v>
@@ -9398,7 +9399,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>305</v>
@@ -9420,7 +9421,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>306</v>
@@ -9442,7 +9443,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>39295</v>
       </c>
@@ -9466,7 +9467,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>39326</v>
       </c>
@@ -9492,7 +9493,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>39356</v>
       </c>
@@ -9516,7 +9517,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>312</v>
@@ -9538,7 +9539,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>39387</v>
       </c>
@@ -9562,7 +9563,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>313</v>
@@ -9584,7 +9585,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="41">
         <v>39417</v>
       </c>
@@ -9608,7 +9609,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>49</v>
@@ -9630,7 +9631,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>315</v>
@@ -9652,7 +9653,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23" t="s">
         <v>316</v>
       </c>
@@ -9670,7 +9671,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>39448</v>
       </c>
@@ -9692,7 +9693,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>310</v>
@@ -9714,7 +9715,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>319</v>
@@ -9738,7 +9739,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>39479</v>
       </c>
@@ -9760,7 +9761,7 @@
         <v>39754</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>175</v>
@@ -9780,7 +9781,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>236</v>
@@ -9800,7 +9801,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>322</v>
@@ -9824,7 +9825,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>39508</v>
       </c>
@@ -9848,7 +9849,7 @@
         <v>39602</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>325</v>
@@ -9872,7 +9873,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>39539</v>
       </c>
@@ -9896,7 +9897,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>39569</v>
       </c>
@@ -9920,7 +9921,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -9938,7 +9939,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>39600</v>
       </c>
@@ -9962,7 +9963,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>328</v>
@@ -9984,7 +9985,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>39630</v>
       </c>
@@ -10008,7 +10009,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>39661</v>
       </c>
@@ -10032,7 +10033,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>39692</v>
       </c>
@@ -10056,7 +10057,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>39722</v>
       </c>
@@ -10078,7 +10079,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>49</v>
@@ -10100,7 +10101,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="41"/>
       <c r="B313" s="15" t="s">
         <v>333</v>
@@ -10122,7 +10123,7 @@
       <c r="J313" s="12"/>
       <c r="K313" s="15"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>39753</v>
       </c>
@@ -10146,7 +10147,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>39783</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>337</v>
@@ -10192,7 +10193,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23" t="s">
         <v>339</v>
       </c>
@@ -10210,7 +10211,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>39814</v>
       </c>
@@ -10234,7 +10235,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>49</v>
@@ -10256,7 +10257,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>49</v>
@@ -10278,7 +10279,7 @@
         <v>39874</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>39845</v>
       </c>
@@ -10298,7 +10299,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>39873</v>
       </c>
@@ -10318,7 +10319,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>39904</v>
       </c>
@@ -10338,7 +10339,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>39934</v>
       </c>
@@ -10358,7 +10359,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>39965</v>
       </c>
@@ -10384,7 +10385,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="41">
         <v>39995</v>
       </c>
@@ -10404,7 +10405,7 @@
       <c r="J326" s="12"/>
       <c r="K326" s="15"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>40026</v>
       </c>
@@ -10424,7 +10425,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>40057</v>
       </c>
@@ -10448,7 +10449,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>40087</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>40118</v>
       </c>
@@ -10500,7 +10501,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>236</v>
@@ -10520,7 +10521,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>40148</v>
       </c>
@@ -10546,7 +10547,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>236</v>
@@ -10566,7 +10567,7 @@
         <v>39915</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23" t="s">
         <v>347</v>
       </c>
@@ -10584,7 +10585,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>40179</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>49</v>
@@ -10630,7 +10631,7 @@
         <v>40239</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>348</v>
@@ -10652,7 +10653,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>40210</v>
       </c>
@@ -10676,7 +10677,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="41">
         <v>40238</v>
       </c>
@@ -10700,7 +10701,7 @@
         <v>40515</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>236</v>
@@ -10720,7 +10721,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>351</v>
@@ -10742,7 +10743,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>40269</v>
       </c>
@@ -10764,7 +10765,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>352</v>
@@ -10786,7 +10787,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>40299</v>
       </c>
@@ -10810,7 +10811,7 @@
         <v>40273</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>49</v>
@@ -10832,7 +10833,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>236</v>
@@ -10852,7 +10853,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>354</v>
@@ -10874,7 +10875,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>40330</v>
       </c>
@@ -10898,7 +10899,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>49</v>
@@ -10920,7 +10921,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>357</v>
@@ -10942,7 +10943,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>40360</v>
       </c>
@@ -10966,7 +10967,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>49</v>
@@ -10988,7 +10989,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>360</v>
@@ -11010,7 +11011,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -11026,7 +11027,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>40391</v>
       </c>
@@ -11050,7 +11051,7 @@
         <v>40520</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>49</v>
@@ -11072,7 +11073,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="41"/>
       <c r="B357" s="15" t="s">
         <v>363</v>
@@ -11094,7 +11095,7 @@
       <c r="J357" s="12"/>
       <c r="K357" s="15"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>40422</v>
       </c>
@@ -11120,7 +11121,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>365</v>
@@ -11142,7 +11143,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>40452</v>
       </c>
@@ -11166,7 +11167,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>49</v>
@@ -11185,7 +11186,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>369</v>
@@ -11207,7 +11208,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>40483</v>
       </c>
@@ -11231,7 +11232,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>370</v>
@@ -11253,7 +11254,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>246</v>
@@ -11275,7 +11276,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>371</v>
@@ -11297,7 +11298,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>40513</v>
       </c>
@@ -11319,7 +11320,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>375</v>
@@ -11341,7 +11342,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="48" t="s">
         <v>376</v>
       </c>
@@ -11359,7 +11360,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>40544</v>
       </c>
@@ -11383,7 +11384,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>40575</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>190</v>
@@ -11427,7 +11428,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>49</v>
@@ -11449,7 +11450,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>236</v>
@@ -11473,7 +11474,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>90</v>
@@ -11491,7 +11492,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>40603</v>
       </c>
@@ -11515,7 +11516,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="41"/>
       <c r="B377" s="15" t="s">
         <v>49</v>
@@ -11537,7 +11538,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>382</v>
@@ -11559,7 +11560,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>40634</v>
       </c>
@@ -11583,7 +11584,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>40664</v>
       </c>
@@ -11607,7 +11608,7 @@
         <v>40791</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>386</v>
@@ -11627,7 +11628,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>40695</v>
       </c>
@@ -11651,7 +11652,7 @@
         <v>40580</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>49</v>
@@ -11673,7 +11674,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>387</v>
@@ -11695,7 +11696,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>40725</v>
       </c>
@@ -11719,7 +11720,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>40756</v>
       </c>
@@ -11743,7 +11744,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>49</v>
@@ -11765,7 +11766,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>389</v>
@@ -11787,7 +11788,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>40787</v>
       </c>
@@ -11811,7 +11812,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>392</v>
@@ -11833,7 +11834,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>40817</v>
       </c>
@@ -11855,7 +11856,7 @@
         <v>40826</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>236</v>
@@ -11877,7 +11878,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>246</v>
@@ -11899,7 +11900,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>49</v>
@@ -11921,7 +11922,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>394</v>
@@ -11943,7 +11944,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="41">
         <v>40848</v>
       </c>
@@ -11967,7 +11968,7 @@
       <c r="J396" s="12"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>40878</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>40798</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>370</v>
@@ -12015,7 +12016,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>190</v>
@@ -12037,7 +12038,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>49</v>
@@ -12059,7 +12060,7 @@
         <v>40675</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>49</v>
@@ -12081,7 +12082,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23" t="s">
         <v>401</v>
       </c>
@@ -12099,7 +12100,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>40909</v>
       </c>
@@ -12123,7 +12124,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>40940</v>
       </c>
@@ -12147,7 +12148,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>403</v>
@@ -12169,7 +12170,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>40969</v>
       </c>
@@ -12191,7 +12192,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>236</v>
@@ -12211,7 +12212,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>49</v>
@@ -12233,7 +12234,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>49</v>
@@ -12255,7 +12256,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>405</v>
@@ -12277,7 +12278,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>41000</v>
       </c>
@@ -12301,7 +12302,7 @@
         <v>40969</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>60</v>
@@ -12323,7 +12324,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>410</v>
@@ -12347,7 +12348,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>41030</v>
       </c>
@@ -12371,7 +12372,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>60</v>
@@ -12393,7 +12394,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>413</v>
@@ -12415,7 +12416,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -12431,7 +12432,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>41061</v>
       </c>
@@ -12455,7 +12456,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>49</v>
@@ -12477,7 +12478,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="41"/>
       <c r="B420" s="15" t="s">
         <v>416</v>
@@ -12499,7 +12500,7 @@
       <c r="J420" s="12"/>
       <c r="K420" s="15"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>41091</v>
       </c>
@@ -12523,7 +12524,7 @@
         <v>41159</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>49</v>
@@ -12545,7 +12546,7 @@
         <v>41220</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>418</v>
@@ -12567,7 +12568,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>41122</v>
       </c>
@@ -12591,7 +12592,7 @@
         <v>41190</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>209</v>
@@ -12613,7 +12614,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>41153</v>
       </c>
@@ -12637,7 +12638,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>49</v>
@@ -12659,7 +12660,7 @@
         <v>41191</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>419</v>
@@ -12681,7 +12682,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>41183</v>
       </c>
@@ -12705,7 +12706,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>310</v>
@@ -12727,7 +12728,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>236</v>
@@ -12747,7 +12748,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>420</v>
@@ -12771,7 +12772,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>41214</v>
       </c>
@@ -12795,7 +12796,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>49</v>
@@ -12817,7 +12818,7 @@
         <v>41132</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="41"/>
       <c r="B435" s="15" t="s">
         <v>49</v>
@@ -12839,7 +12840,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>310</v>
@@ -12861,7 +12862,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>424</v>
@@ -12883,7 +12884,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>41244</v>
       </c>
@@ -12907,7 +12908,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23" t="s">
         <v>429</v>
       </c>
@@ -12925,7 +12926,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>41275</v>
       </c>
@@ -12949,7 +12950,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>41306</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>49</v>
@@ -12995,7 +12996,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>278</v>
@@ -13017,7 +13018,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>41334</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>434</v>
@@ -13061,7 +13062,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>49</v>
@@ -13083,7 +13084,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>435</v>
@@ -13105,7 +13106,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>41365</v>
       </c>
@@ -13129,7 +13130,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>438</v>
@@ -13151,7 +13152,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="41">
         <v>41395</v>
       </c>
@@ -13175,7 +13176,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>439</v>
@@ -13201,7 +13202,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>41426</v>
       </c>
@@ -13225,7 +13226,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>41456</v>
       </c>
@@ -13249,7 +13250,7 @@
         <v>41524</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>236</v>
@@ -13269,7 +13270,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>49</v>
@@ -13291,7 +13292,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>443</v>
@@ -13313,7 +13314,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>41487</v>
       </c>
@@ -13337,7 +13338,7 @@
         <v>41616</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>49</v>
@@ -13359,7 +13360,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>445</v>
@@ -13381,7 +13382,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>41518</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v>41526</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>431</v>
@@ -13427,7 +13428,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>451</v>
@@ -13449,7 +13450,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>41548</v>
       </c>
@@ -13473,7 +13474,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>49</v>
@@ -13495,7 +13496,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>49</v>
@@ -13517,7 +13518,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>452</v>
@@ -13539,7 +13540,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>41579</v>
       </c>
@@ -13561,7 +13562,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>456</v>
@@ -13585,7 +13586,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>41609</v>
       </c>
@@ -13609,7 +13610,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="41"/>
       <c r="B470" s="15" t="s">
         <v>458</v>
@@ -13631,7 +13632,7 @@
       <c r="J470" s="12"/>
       <c r="K470" s="15"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23" t="s">
         <v>460</v>
       </c>
@@ -13649,7 +13650,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>41640</v>
       </c>
@@ -13673,7 +13674,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>41671</v>
       </c>
@@ -13697,7 +13698,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>41699</v>
       </c>
@@ -13719,7 +13720,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>236</v>
@@ -13739,7 +13740,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>463</v>
@@ -13761,7 +13762,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>41730</v>
       </c>
@@ -13785,7 +13786,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>41760</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>467</v>
@@ -13831,7 +13832,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>41791</v>
       </c>
@@ -13855,7 +13856,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>41821</v>
       </c>
@@ -13879,7 +13880,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>41852</v>
       </c>
@@ -13899,7 +13900,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>41883</v>
       </c>
@@ -13919,7 +13920,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="41">
         <v>41913</v>
       </c>
@@ -13943,7 +13944,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>370</v>
@@ -13967,7 +13968,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>41944</v>
       </c>
@@ -13987,7 +13988,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="15"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>41974</v>
       </c>
@@ -14013,7 +14014,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="48" t="s">
         <v>474</v>
       </c>
@@ -14031,7 +14032,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="15"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>42005</v>
       </c>
@@ -14051,7 +14052,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="15"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>42036</v>
       </c>
@@ -14075,7 +14076,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>42064</v>
       </c>
@@ -14099,7 +14100,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>42095</v>
       </c>
@@ -14119,7 +14120,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>42125</v>
       </c>
@@ -14139,7 +14140,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>42156</v>
       </c>
@@ -14159,7 +14160,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>42186</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>477</v>
@@ -14205,7 +14206,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>42217</v>
       </c>
@@ -14233,7 +14234,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>42248</v>
       </c>
@@ -14257,7 +14258,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>96</v>
@@ -14279,7 +14280,7 @@
         <v>42045</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>49</v>
@@ -14301,7 +14302,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>385</v>
@@ -14323,7 +14324,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="41">
         <v>42278</v>
       </c>
@@ -14347,7 +14348,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>61</v>
@@ -14367,7 +14368,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>234</v>
@@ -14389,7 +14390,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>42309</v>
       </c>
@@ -14407,7 +14408,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>236</v>
@@ -14429,7 +14430,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>486</v>
@@ -14455,7 +14456,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>42339</v>
       </c>
@@ -14479,7 +14480,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>490</v>
@@ -14501,7 +14502,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>246</v>
@@ -14523,7 +14524,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="23" t="s">
         <v>493</v>
       </c>
@@ -14541,7 +14542,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>42370</v>
       </c>
@@ -14563,7 +14564,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>494</v>
@@ -14585,7 +14586,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>42401</v>
       </c>
@@ -14609,7 +14610,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>42430</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A516" s="41"/>
       <c r="B516" s="15" t="s">
         <v>236</v>
@@ -14653,7 +14654,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>497</v>
@@ -14675,7 +14676,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>42461</v>
       </c>
@@ -14699,7 +14700,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>500</v>
@@ -14721,7 +14722,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>42491</v>
       </c>
@@ -14745,7 +14746,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>501</v>
@@ -14767,7 +14768,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>42522</v>
       </c>
@@ -14791,7 +14792,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>504</v>
@@ -14813,7 +14814,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>42552</v>
       </c>
@@ -14837,7 +14838,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>42583</v>
       </c>
@@ -14861,7 +14862,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>507</v>
@@ -14883,7 +14884,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>42614</v>
       </c>
@@ -14907,7 +14908,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>509</v>
@@ -14930,7 +14931,7 @@
       <c r="K528" s="20"/>
       <c r="L528" s="11"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>42644</v>
       </c>
@@ -14954,7 +14955,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>511</v>
@@ -14976,7 +14977,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>42675</v>
       </c>
@@ -15000,7 +15001,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>513</v>
@@ -15022,7 +15023,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>42705</v>
       </c>
@@ -15044,7 +15045,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="41"/>
       <c r="B534" s="15" t="s">
         <v>515</v>
@@ -15068,7 +15069,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="23" t="s">
         <v>517</v>
       </c>
@@ -15086,7 +15087,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="15"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>42736</v>
       </c>
@@ -15112,7 +15113,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>42767</v>
       </c>
@@ -15136,7 +15137,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>42795</v>
       </c>
@@ -15156,7 +15157,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="15"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>42826</v>
       </c>
@@ -15180,7 +15181,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>49</v>
@@ -15204,7 +15205,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>42856</v>
       </c>
@@ -15230,7 +15231,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>236</v>
@@ -15250,7 +15251,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>236</v>
@@ -15270,7 +15271,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>42887</v>
       </c>
@@ -15296,7 +15297,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>42917</v>
       </c>
@@ -15316,7 +15317,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>42948</v>
       </c>
@@ -15340,7 +15341,7 @@
         <v>42743</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>60</v>
@@ -15364,7 +15365,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15380,7 +15381,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>42979</v>
       </c>
@@ -15404,7 +15405,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>49</v>
@@ -15428,7 +15429,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>43009</v>
       </c>
@@ -15448,7 +15449,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>43040</v>
       </c>
@@ -15468,7 +15469,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="41">
         <v>43070</v>
       </c>
@@ -15490,7 +15491,7 @@
         <v>42959</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>230</v>
@@ -15514,7 +15515,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="23" t="s">
         <v>528</v>
       </c>
@@ -15532,7 +15533,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>43101</v>
       </c>
@@ -15554,7 +15555,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>60</v>
@@ -15578,7 +15579,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>43132</v>
       </c>
@@ -15598,7 +15599,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>43160</v>
       </c>
@@ -15622,7 +15623,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>43191</v>
       </c>
@@ -15646,7 +15647,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>49</v>
@@ -15670,7 +15671,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>43221</v>
       </c>
@@ -15694,7 +15695,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>49</v>
@@ -15716,7 +15717,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>49</v>
@@ -15740,7 +15741,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>43252</v>
       </c>
@@ -15760,7 +15761,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>43282</v>
       </c>
@@ -15786,7 +15787,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="41">
         <v>43313</v>
       </c>
@@ -15810,7 +15811,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>49</v>
@@ -15832,7 +15833,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>49</v>
@@ -15856,7 +15857,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>43344</v>
       </c>
@@ -15882,7 +15883,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>43374</v>
       </c>
@@ -15908,7 +15909,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>49</v>
@@ -15930,7 +15931,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>49</v>
@@ -15952,7 +15953,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>43405</v>
       </c>
@@ -15972,7 +15973,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>43435</v>
       </c>
@@ -15994,7 +15995,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="41"/>
       <c r="B576" s="15" t="s">
         <v>49</v>
@@ -16018,7 +16019,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="48" t="s">
         <v>542</v>
       </c>
@@ -16036,7 +16037,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>43466</v>
       </c>
@@ -16056,7 +16057,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>43497</v>
       </c>
@@ -16076,7 +16077,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>43525</v>
       </c>
@@ -16100,7 +16101,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>43556</v>
       </c>
@@ -16120,7 +16121,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>43586</v>
       </c>
@@ -16140,7 +16141,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="41">
         <v>43617</v>
       </c>
@@ -16164,7 +16165,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>43647</v>
       </c>
@@ -16184,7 +16185,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>43678</v>
       </c>
@@ -16208,7 +16209,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>43709</v>
       </c>
@@ -16228,7 +16229,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>43739</v>
       </c>
@@ -16254,7 +16255,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>43770</v>
       </c>
@@ -16274,7 +16275,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>43800</v>
       </c>
@@ -16298,7 +16299,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="23" t="s">
         <v>547</v>
       </c>
@@ -16316,7 +16317,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="41">
         <v>43831</v>
       </c>
@@ -16340,7 +16341,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>43862</v>
       </c>
@@ -16360,7 +16361,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>43891</v>
       </c>
@@ -16380,7 +16381,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>43922</v>
       </c>
@@ -16400,7 +16401,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="41">
         <v>43952</v>
       </c>
@@ -16420,7 +16421,7 @@
       <c r="J595" s="12"/>
       <c r="K595" s="15"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>43983</v>
       </c>
@@ -16440,7 +16441,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>44013</v>
       </c>
@@ -16460,7 +16461,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>44044</v>
       </c>
@@ -16480,7 +16481,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>44075</v>
       </c>
@@ -16502,7 +16503,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>236</v>
@@ -16522,7 +16523,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>96</v>
@@ -16544,7 +16545,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
         <v>550</v>
@@ -16568,7 +16569,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>44105</v>
       </c>
@@ -16588,7 +16589,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>44136</v>
       </c>
@@ -16612,7 +16613,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="23" t="s">
         <v>554</v>
       </c>
@@ -16630,7 +16631,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>44197</v>
       </c>
@@ -16650,7 +16651,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <v>44228</v>
       </c>
@@ -16670,7 +16671,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <v>44256</v>
       </c>
@@ -16690,7 +16691,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>44287</v>
       </c>
@@ -16710,7 +16711,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="41">
         <v>44317</v>
       </c>
@@ -16730,7 +16731,7 @@
       <c r="J610" s="12"/>
       <c r="K610" s="15"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>44348</v>
       </c>
@@ -16750,7 +16751,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>44378</v>
       </c>
@@ -16770,7 +16771,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>44409</v>
       </c>
@@ -16792,7 +16793,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>236</v>
@@ -16814,7 +16815,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>44440</v>
       </c>
@@ -16834,7 +16835,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>44470</v>
       </c>
@@ -16856,7 +16857,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>44501</v>
       </c>
@@ -16882,7 +16883,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>550</v>
@@ -16904,7 +16905,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>44531</v>
       </c>
@@ -16924,7 +16925,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="23" t="s">
         <v>561</v>
       </c>
@@ -16942,7 +16943,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>44562</v>
       </c>
@@ -16962,7 +16963,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>44593</v>
       </c>
@@ -16982,7 +16983,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>44621</v>
       </c>
@@ -17004,7 +17005,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>49</v>
@@ -17026,7 +17027,7 @@
         <v>44898</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>49</v>
@@ -17050,7 +17051,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>580</v>
@@ -17072,7 +17073,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>584</v>
@@ -17092,7 +17093,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="49"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <v>44652</v>
       </c>
@@ -17118,7 +17119,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
         <v>434</v>
@@ -17138,7 +17139,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>583</v>
@@ -17158,7 +17159,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>44682</v>
       </c>
@@ -17182,7 +17183,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="41">
         <v>44713</v>
       </c>
@@ -17208,7 +17209,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>115</v>
@@ -17228,7 +17229,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="49"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>44743</v>
       </c>
@@ -17252,7 +17253,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>49</v>
@@ -17274,7 +17275,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>49</v>
@@ -17296,7 +17297,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40"/>
       <c r="B637" s="20" t="s">
         <v>49</v>
@@ -17318,7 +17319,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>49</v>
@@ -17340,7 +17341,7 @@
         <v>44785</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
         <v>579</v>
@@ -17360,7 +17361,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="49"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>44774</v>
       </c>
@@ -17384,7 +17385,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>44805</v>
       </c>
@@ -17410,7 +17411,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>124</v>
@@ -17432,7 +17433,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <v>44835</v>
       </c>
@@ -17458,7 +17459,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>577</v>
@@ -17478,7 +17479,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>44866</v>
       </c>
@@ -17504,7 +17505,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>370</v>
@@ -17526,7 +17527,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
         <v>162</v>
@@ -17546,7 +17547,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>44896</v>
       </c>
@@ -17572,7 +17573,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>96</v>
@@ -17594,7 +17595,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>576</v>
@@ -17614,7 +17615,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="49"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="48" t="s">
         <v>571</v>
       </c>
@@ -17632,7 +17633,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="41">
         <v>44927</v>
       </c>
@@ -17656,7 +17657,7 @@
       <c r="J652" s="12"/>
       <c r="K652" s="15"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>44958</v>
       </c>
@@ -17682,7 +17683,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>598</v>
@@ -17702,7 +17703,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="49"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>44986</v>
       </c>
@@ -17728,7 +17729,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40"/>
       <c r="B656" s="20" t="s">
         <v>574</v>
@@ -17748,7 +17749,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
         <v>124</v>
@@ -17770,7 +17771,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>597</v>
@@ -17790,7 +17791,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="49"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <v>45017</v>
       </c>
@@ -17816,7 +17817,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
         <v>583</v>
@@ -17836,7 +17837,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="49"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>45047</v>
       </c>
@@ -17862,7 +17863,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>574</v>
@@ -17882,7 +17883,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>596</v>
@@ -17902,7 +17903,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="49"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>45078</v>
       </c>
@@ -17928,7 +17929,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40"/>
       <c r="B665" s="20" t="s">
         <v>595</v>
@@ -17948,7 +17949,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="49"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <v>45108</v>
       </c>
@@ -17972,7 +17973,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
         <v>124</v>
@@ -17994,7 +17995,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>594</v>
@@ -18014,7 +18015,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="49"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>45139</v>
       </c>
@@ -18040,7 +18041,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
         <v>580</v>
@@ -18062,7 +18063,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40"/>
       <c r="B671" s="20" t="s">
         <v>593</v>
@@ -18082,7 +18083,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="49"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <v>45170</v>
       </c>
@@ -18108,7 +18109,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
         <v>114</v>
@@ -18130,7 +18131,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
       <c r="B674" s="20" t="s">
         <v>592</v>
@@ -18150,7 +18151,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="49"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>45200</v>
       </c>
@@ -18176,7 +18177,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
         <v>572</v>
@@ -18198,7 +18199,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>124</v>
@@ -18220,7 +18221,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>580</v>
@@ -18242,7 +18243,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>591</v>
@@ -18262,7 +18263,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="49"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>45231</v>
       </c>
@@ -18288,7 +18289,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20" t="s">
         <v>590</v>
@@ -18308,7 +18309,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>45261</v>
       </c>
@@ -18334,7 +18335,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>589</v>
@@ -18354,7 +18355,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="49"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="48" t="s">
         <v>588</v>
       </c>
@@ -18372,20 +18373,22 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <v>45292</v>
       </c>
       <c r="B685" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C685" s="13"/>
+      <c r="C685" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D685" s="39"/>
       <c r="E685" s="9"/>
       <c r="F685" s="20"/>
-      <c r="G685" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G685" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H685" s="39">
         <v>1</v>
@@ -18396,11 +18399,11 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B686" s="20"/>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A686" s="40"/>
+      <c r="B686" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="C686" s="13"/>
       <c r="D686" s="39"/>
       <c r="E686" s="9"/>
@@ -18412,11 +18415,13 @@
       <c r="H686" s="39"/>
       <c r="I686" s="9"/>
       <c r="J686" s="11"/>
-      <c r="K686" s="20"/>
-    </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K686" s="49">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18432,9 +18437,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18450,9 +18455,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18468,9 +18473,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18486,9 +18491,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18504,9 +18509,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18522,9 +18527,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18540,9 +18545,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18558,9 +18563,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18576,9 +18581,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18594,9 +18599,9 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18612,9 +18617,9 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18630,9 +18635,9 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18648,9 +18653,9 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18666,9 +18671,9 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18684,9 +18689,9 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18702,9 +18707,9 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18720,9 +18725,9 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18738,9 +18743,9 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18756,9 +18761,9 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18774,9 +18779,9 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18792,9 +18797,9 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18810,9 +18815,9 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18828,9 +18833,9 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18846,9 +18851,9 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18864,9 +18869,9 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18882,9 +18887,9 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18900,9 +18905,9 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18918,9 +18923,9 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18936,9 +18941,9 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18954,9 +18959,9 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18972,9 +18977,9 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18990,9 +18995,9 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19008,9 +19013,9 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19026,9 +19031,9 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19044,9 +19049,9 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19062,9 +19067,9 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19080,9 +19085,9 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19098,9 +19103,9 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19116,9 +19121,9 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19134,9 +19139,9 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19152,9 +19157,9 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19170,9 +19175,9 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19188,9 +19193,9 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19206,9 +19211,9 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19224,9 +19229,9 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19242,9 +19247,9 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19260,9 +19265,9 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19278,9 +19283,9 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19296,9 +19301,9 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19314,9 +19319,9 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19332,9 +19337,9 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19350,9 +19355,9 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19368,9 +19373,9 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19386,9 +19391,9 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19404,9 +19409,9 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19422,9 +19427,9 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19440,9 +19445,9 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19458,9 +19463,9 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19476,9 +19481,9 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19494,9 +19499,9 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19512,9 +19517,9 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19530,9 +19535,9 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19548,9 +19553,9 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19566,9 +19571,9 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19584,9 +19589,9 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19602,9 +19607,9 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19620,9 +19625,9 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19638,9 +19643,9 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19656,9 +19661,9 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19674,9 +19679,9 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19692,9 +19697,9 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19710,9 +19715,9 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19728,9 +19733,9 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19746,9 +19751,9 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19764,9 +19769,9 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19782,9 +19787,9 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19800,9 +19805,9 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19818,9 +19823,9 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19836,9 +19841,9 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19854,9 +19859,9 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19872,9 +19877,9 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19890,9 +19895,9 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19908,9 +19913,9 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19926,9 +19931,9 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19944,9 +19949,9 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19962,9 +19967,9 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19980,9 +19985,9 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19998,9 +20003,9 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -20016,9 +20021,9 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -20034,9 +20039,9 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -20052,9 +20057,9 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -20070,9 +20075,9 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -20088,9 +20093,9 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -20106,9 +20111,9 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -20124,9 +20129,9 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -20142,9 +20147,9 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -20160,9 +20165,9 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -20178,9 +20183,9 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -20196,9 +20201,9 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -20214,9 +20219,9 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -20232,9 +20237,9 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -20250,9 +20255,9 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -20268,9 +20273,9 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -20286,9 +20291,9 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -20304,9 +20309,9 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -20322,9 +20327,9 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -20340,9 +20345,9 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -20358,9 +20363,9 @@
       <c r="J794" s="11"/>
       <c r="K794" s="20"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="40">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -20376,9 +20381,9 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" s="40">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -20394,9 +20399,9 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" s="40">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -20412,9 +20417,9 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A798" s="40">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -20430,9 +20435,9 @@
       <c r="J798" s="11"/>
       <c r="K798" s="20"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" s="40">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -20448,9 +20453,9 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" s="40">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -20466,9 +20471,9 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" s="40">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20484,9 +20489,9 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" s="40">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20502,9 +20507,9 @@
       <c r="J802" s="11"/>
       <c r="K802" s="20"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" s="40">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20520,9 +20525,9 @@
       <c r="J803" s="11"/>
       <c r="K803" s="20"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" s="40">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20538,9 +20543,9 @@
       <c r="J804" s="11"/>
       <c r="K804" s="20"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A805" s="40">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20556,9 +20561,9 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" s="40">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20574,9 +20579,9 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" s="40">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20592,9 +20597,9 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" s="40">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20610,9 +20615,9 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" s="40">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20628,9 +20633,9 @@
       <c r="J809" s="11"/>
       <c r="K809" s="20"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" s="40">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20646,9 +20651,9 @@
       <c r="J810" s="11"/>
       <c r="K810" s="20"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" s="40">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20664,9 +20669,9 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" s="40">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20682,9 +20687,9 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" s="40">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20700,9 +20705,9 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" s="40">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20718,9 +20723,9 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" s="40">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20736,9 +20741,9 @@
       <c r="J815" s="11"/>
       <c r="K815" s="20"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" s="40">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20754,9 +20759,9 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A817" s="40">
-        <v>49310</v>
+        <v>49279</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20772,9 +20777,9 @@
       <c r="J817" s="11"/>
       <c r="K817" s="20"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A818" s="40">
-        <v>49341</v>
+        <v>49310</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -20790,9 +20795,9 @@
       <c r="J818" s="11"/>
       <c r="K818" s="20"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A819" s="40">
-        <v>49369</v>
+        <v>49341</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -20808,9 +20813,9 @@
       <c r="J819" s="11"/>
       <c r="K819" s="20"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A820" s="40">
-        <v>49400</v>
+        <v>49369</v>
       </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -20826,9 +20831,9 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A821" s="40">
-        <v>49430</v>
+        <v>49400</v>
       </c>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
@@ -20844,9 +20849,9 @@
       <c r="J821" s="11"/>
       <c r="K821" s="20"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A822" s="40">
-        <v>49461</v>
+        <v>49430</v>
       </c>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
@@ -20862,9 +20867,9 @@
       <c r="J822" s="11"/>
       <c r="K822" s="20"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A823" s="40">
-        <v>49491</v>
+        <v>49461</v>
       </c>
       <c r="B823" s="20"/>
       <c r="C823" s="13"/>
@@ -20880,9 +20885,9 @@
       <c r="J823" s="11"/>
       <c r="K823" s="20"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A824" s="40">
-        <v>49522</v>
+        <v>49491</v>
       </c>
       <c r="B824" s="20"/>
       <c r="C824" s="13"/>
@@ -20898,9 +20903,9 @@
       <c r="J824" s="11"/>
       <c r="K824" s="20"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A825" s="40">
-        <v>49553</v>
+        <v>49522</v>
       </c>
       <c r="B825" s="20"/>
       <c r="C825" s="13"/>
@@ -20916,9 +20921,9 @@
       <c r="J825" s="11"/>
       <c r="K825" s="20"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A826" s="40">
-        <v>49583</v>
+        <v>49553</v>
       </c>
       <c r="B826" s="20"/>
       <c r="C826" s="13"/>
@@ -20934,9 +20939,9 @@
       <c r="J826" s="11"/>
       <c r="K826" s="20"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A827" s="40">
-        <v>49614</v>
+        <v>49583</v>
       </c>
       <c r="B827" s="20"/>
       <c r="C827" s="13"/>
@@ -20952,9 +20957,9 @@
       <c r="J827" s="11"/>
       <c r="K827" s="20"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A828" s="40">
-        <v>49644</v>
+        <v>49614</v>
       </c>
       <c r="B828" s="20"/>
       <c r="C828" s="13"/>
@@ -20970,9 +20975,9 @@
       <c r="J828" s="11"/>
       <c r="K828" s="20"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A829" s="40">
-        <v>49675</v>
+        <v>49644</v>
       </c>
       <c r="B829" s="20"/>
       <c r="C829" s="13"/>
@@ -20988,9 +20993,9 @@
       <c r="J829" s="11"/>
       <c r="K829" s="20"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A830" s="40">
-        <v>49706</v>
+        <v>49675</v>
       </c>
       <c r="B830" s="20"/>
       <c r="C830" s="13"/>
@@ -21006,9 +21011,9 @@
       <c r="J830" s="11"/>
       <c r="K830" s="20"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A831" s="40">
-        <v>49735</v>
+        <v>49706</v>
       </c>
       <c r="B831" s="20"/>
       <c r="C831" s="13"/>
@@ -21024,9 +21029,9 @@
       <c r="J831" s="11"/>
       <c r="K831" s="20"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A832" s="40">
-        <v>49766</v>
+        <v>49735</v>
       </c>
       <c r="B832" s="20"/>
       <c r="C832" s="13"/>
@@ -21042,9 +21047,9 @@
       <c r="J832" s="11"/>
       <c r="K832" s="20"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A833" s="40">
-        <v>49796</v>
+        <v>49766</v>
       </c>
       <c r="B833" s="20"/>
       <c r="C833" s="13"/>
@@ -21060,9 +21065,9 @@
       <c r="J833" s="11"/>
       <c r="K833" s="20"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A834" s="40">
-        <v>49827</v>
+        <v>49796</v>
       </c>
       <c r="B834" s="20"/>
       <c r="C834" s="13"/>
@@ -21078,9 +21083,9 @@
       <c r="J834" s="11"/>
       <c r="K834" s="20"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A835" s="40">
-        <v>49857</v>
+        <v>49827</v>
       </c>
       <c r="B835" s="20"/>
       <c r="C835" s="13"/>
@@ -21096,9 +21101,9 @@
       <c r="J835" s="11"/>
       <c r="K835" s="20"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A836" s="40">
-        <v>49888</v>
+        <v>49857</v>
       </c>
       <c r="B836" s="20"/>
       <c r="C836" s="13"/>
@@ -21114,9 +21119,9 @@
       <c r="J836" s="11"/>
       <c r="K836" s="20"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A837" s="40">
-        <v>49919</v>
+        <v>49888</v>
       </c>
       <c r="B837" s="20"/>
       <c r="C837" s="13"/>
@@ -21132,9 +21137,9 @@
       <c r="J837" s="11"/>
       <c r="K837" s="20"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A838" s="40">
-        <v>49949</v>
+        <v>49919</v>
       </c>
       <c r="B838" s="20"/>
       <c r="C838" s="13"/>
@@ -21150,9 +21155,9 @@
       <c r="J838" s="11"/>
       <c r="K838" s="20"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A839" s="40">
-        <v>49980</v>
+        <v>49949</v>
       </c>
       <c r="B839" s="20"/>
       <c r="C839" s="13"/>
@@ -21168,8 +21173,10 @@
       <c r="J839" s="11"/>
       <c r="K839" s="20"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A840" s="40"/>
+    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A840" s="40">
+        <v>49980</v>
+      </c>
       <c r="B840" s="20"/>
       <c r="C840" s="13"/>
       <c r="D840" s="39"/>
@@ -21184,7 +21191,7 @@
       <c r="J840" s="11"/>
       <c r="K840" s="20"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A841" s="40"/>
       <c r="B841" s="20"/>
       <c r="C841" s="13"/>
@@ -21200,7 +21207,7 @@
       <c r="J841" s="11"/>
       <c r="K841" s="20"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A842" s="40"/>
       <c r="B842" s="20"/>
       <c r="C842" s="13"/>
@@ -21216,7 +21223,7 @@
       <c r="J842" s="11"/>
       <c r="K842" s="20"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A843" s="40"/>
       <c r="B843" s="20"/>
       <c r="C843" s="13"/>
@@ -21232,7 +21239,7 @@
       <c r="J843" s="11"/>
       <c r="K843" s="20"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A844" s="40"/>
       <c r="B844" s="20"/>
       <c r="C844" s="13"/>
@@ -21248,21 +21255,37 @@
       <c r="J844" s="11"/>
       <c r="K844" s="20"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A845" s="41"/>
-      <c r="B845" s="15"/>
-      <c r="C845" s="42"/>
-      <c r="D845" s="43"/>
+    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A845" s="40"/>
+      <c r="B845" s="20"/>
+      <c r="C845" s="13"/>
+      <c r="D845" s="39"/>
       <c r="E845" s="9"/>
-      <c r="F845" s="15"/>
-      <c r="G845" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H845" s="43"/>
+      <c r="F845" s="20"/>
+      <c r="G845" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H845" s="39"/>
       <c r="I845" s="9"/>
-      <c r="J845" s="12"/>
-      <c r="K845" s="15"/>
+      <c r="J845" s="11"/>
+      <c r="K845" s="20"/>
+    </row>
+    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A846" s="41"/>
+      <c r="B846" s="15"/>
+      <c r="C846" s="42"/>
+      <c r="D846" s="43"/>
+      <c r="E846" s="9"/>
+      <c r="F846" s="15"/>
+      <c r="G846" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H846" s="43"/>
+      <c r="I846" s="9"/>
+      <c r="J846" s="12"/>
+      <c r="K846" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -21279,10 +21302,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21305,28 +21328,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -21339,7 +21362,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -21368,7 +21391,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -21392,17 +21415,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -21423,7 +21446,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -21450,7 +21473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21476,7 +21499,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21502,7 +21525,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21528,7 +21551,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21554,7 +21577,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21580,7 +21603,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21606,7 +21629,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21632,7 +21655,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21652,7 +21675,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21672,7 +21695,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21692,7 +21715,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21713,7 +21736,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21734,7 +21757,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21755,7 +21778,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21776,7 +21799,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21797,7 +21820,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21818,7 +21841,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21839,7 +21862,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21860,7 +21883,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21881,7 +21904,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21902,7 +21925,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21923,7 +21946,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21944,7 +21967,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21965,7 +21988,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21986,7 +22009,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -22007,7 +22030,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -22028,7 +22051,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -22049,7 +22072,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -22070,7 +22093,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -22091,7 +22114,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -22112,7 +22135,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -22121,7 +22144,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -22130,7 +22153,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -22139,7 +22162,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -22148,7 +22171,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -22157,7 +22180,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -22166,7 +22189,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -22175,7 +22198,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -22184,7 +22207,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -22193,7 +22216,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -22202,7 +22225,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -22211,7 +22234,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -22220,7 +22243,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -22229,7 +22252,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -22238,7 +22261,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -22247,7 +22270,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -22256,7 +22279,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -22265,7 +22288,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -22274,7 +22297,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -22283,7 +22306,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -22292,7 +22315,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -22301,7 +22324,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -22310,7 +22333,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -22319,7 +22342,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -22328,7 +22351,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -22337,7 +22360,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -22346,7 +22369,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -22355,7 +22378,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -22364,7 +22387,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -22373,7 +22396,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
